--- a/PythonEnvironment/resources/all_results_new.xlsx
+++ b/PythonEnvironment/resources/all_results_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\_Thesis\Scavenger\PythonEnvironment\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682AF35E-1299-4EE2-BC1C-F48D41D88F32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038704E7-7275-43E6-8CBD-3807CD901EDB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1019,79 +1019,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>0.9</c:v>
+                  <c:v>0.69189999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9</c:v>
+                  <c:v>0.69189999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9</c:v>
+                  <c:v>0.69189999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9</c:v>
+                  <c:v>0.69189999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.9</c:v>
+                  <c:v>0.69189999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.9</c:v>
+                  <c:v>0.69189999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.9</c:v>
+                  <c:v>0.69189999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.9</c:v>
+                  <c:v>0.69189999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.9</c:v>
+                  <c:v>0.69189999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.9</c:v>
+                  <c:v>0.69189999999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.9</c:v>
+                  <c:v>0.69189999999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.9</c:v>
+                  <c:v>0.69189999999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.9</c:v>
+                  <c:v>0.69189999999999996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.9</c:v>
+                  <c:v>0.69189999999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.9</c:v>
+                  <c:v>0.69189999999999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.9</c:v>
+                  <c:v>0.69189999999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.9</c:v>
+                  <c:v>0.69189999999999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.9</c:v>
+                  <c:v>0.69189999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.9</c:v>
+                  <c:v>0.69189999999999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.9</c:v>
+                  <c:v>0.69189999999999996</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.9</c:v>
+                  <c:v>0.69189999999999996</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.9</c:v>
+                  <c:v>0.69189999999999996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.9</c:v>
+                  <c:v>0.69189999999999996</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.9</c:v>
+                  <c:v>0.69189999999999996</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.9</c:v>
+                  <c:v>0.69189999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1224,91 +1224,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>0.3</c:v>
+                  <c:v>0.27250000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3</c:v>
+                  <c:v>0.27250000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3</c:v>
+                  <c:v>0.27250000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3</c:v>
+                  <c:v>0.27250000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3</c:v>
+                  <c:v>0.27250000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.3</c:v>
+                  <c:v>0.27250000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.3</c:v>
+                  <c:v>0.27250000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.3</c:v>
+                  <c:v>0.27250000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.3</c:v>
+                  <c:v>0.27250000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.3</c:v>
+                  <c:v>0.27250000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.3</c:v>
+                  <c:v>0.27250000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.3</c:v>
+                  <c:v>0.27250000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.3</c:v>
+                  <c:v>0.27250000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.3</c:v>
+                  <c:v>0.27250000000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.3</c:v>
+                  <c:v>0.27250000000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.3</c:v>
+                  <c:v>0.27250000000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.3</c:v>
+                  <c:v>0.27250000000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.3</c:v>
+                  <c:v>0.27250000000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.3</c:v>
+                  <c:v>0.27250000000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.3</c:v>
+                  <c:v>0.27250000000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.3</c:v>
+                  <c:v>0.27250000000000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.3</c:v>
+                  <c:v>0.27250000000000002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.3</c:v>
+                  <c:v>0.27250000000000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.3</c:v>
+                  <c:v>0.27250000000000002</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.3</c:v>
+                  <c:v>0.27250000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1440,79 +1428,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>0.2601</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>0.2601</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>0.2601</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5</c:v>
+                  <c:v>0.2601</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5</c:v>
+                  <c:v>0.2601</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>0.2601</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5</c:v>
+                  <c:v>0.2601</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.5</c:v>
+                  <c:v>0.2601</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.5</c:v>
+                  <c:v>0.2601</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.5</c:v>
+                  <c:v>0.2601</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.5</c:v>
+                  <c:v>0.2601</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.5</c:v>
+                  <c:v>0.2601</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.5</c:v>
+                  <c:v>0.2601</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.5</c:v>
+                  <c:v>0.2601</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.5</c:v>
+                  <c:v>0.2601</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.5</c:v>
+                  <c:v>0.2601</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.5</c:v>
+                  <c:v>0.2601</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.5</c:v>
+                  <c:v>0.2601</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.5</c:v>
+                  <c:v>0.2601</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.5</c:v>
+                  <c:v>0.2601</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.5</c:v>
+                  <c:v>0.2601</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.5</c:v>
+                  <c:v>0.2601</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.5</c:v>
+                  <c:v>0.2601</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.5</c:v>
+                  <c:v>0.2601</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.5</c:v>
+                  <c:v>0.2601</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1822,7 +1810,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$27</c15:sqref>
@@ -2061,7 +2049,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$27</c15:sqref>
@@ -2299,7 +2287,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$27</c15:sqref>
@@ -2537,7 +2525,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$27</c15:sqref>
@@ -2781,7 +2769,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$27</c15:sqref>
@@ -4381,79 +4369,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>0.7</c:v>
+                  <c:v>0.82799999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.7</c:v>
+                  <c:v>0.82799999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.7</c:v>
+                  <c:v>0.82799999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.7</c:v>
+                  <c:v>0.82799999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.7</c:v>
+                  <c:v>0.82799999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.7</c:v>
+                  <c:v>0.82799999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.7</c:v>
+                  <c:v>0.82799999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7</c:v>
+                  <c:v>0.82799999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.7</c:v>
+                  <c:v>0.82799999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.7</c:v>
+                  <c:v>0.82799999999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.7</c:v>
+                  <c:v>0.82799999999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.7</c:v>
+                  <c:v>0.82799999999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.7</c:v>
+                  <c:v>0.82799999999999996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.7</c:v>
+                  <c:v>0.82799999999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.7</c:v>
+                  <c:v>0.82799999999999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.7</c:v>
+                  <c:v>0.82799999999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.7</c:v>
+                  <c:v>0.82799999999999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.7</c:v>
+                  <c:v>0.82799999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.7</c:v>
+                  <c:v>0.82799999999999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.7</c:v>
+                  <c:v>0.82799999999999996</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.7</c:v>
+                  <c:v>0.82799999999999996</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.7</c:v>
+                  <c:v>0.82799999999999996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.7</c:v>
+                  <c:v>0.82799999999999996</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.7</c:v>
+                  <c:v>0.82799999999999996</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.7</c:v>
+                  <c:v>0.82799999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5376,7 +5364,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$27</c15:sqref>
@@ -5620,7 +5608,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$27</c15:sqref>
@@ -5864,7 +5852,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$27</c15:sqref>
@@ -6108,7 +6096,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$27</c15:sqref>
@@ -7849,7 +7837,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$27</c15:sqref>
@@ -8088,7 +8076,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$27</c15:sqref>
@@ -8327,7 +8315,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$27</c15:sqref>
@@ -8565,7 +8553,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$27</c15:sqref>
@@ -8809,7 +8797,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$27</c15:sqref>
@@ -9053,7 +9041,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$27</c15:sqref>
@@ -11607,10 +11595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O56"/>
+  <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y60" sqref="Y60"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12484,16 +12472,16 @@
         <v>0</v>
       </c>
       <c r="B28">
-        <v>0.9</v>
+        <v>0.69189999999999996</v>
       </c>
       <c r="C28">
-        <v>0.3</v>
+        <v>0.27250000000000002</v>
       </c>
       <c r="D28">
-        <v>0.5</v>
+        <v>0.2601</v>
       </c>
       <c r="E28">
-        <v>0.7</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="F28">
         <v>0.5</v>
@@ -12516,16 +12504,16 @@
         <v>1</v>
       </c>
       <c r="B29">
-        <v>0.9</v>
+        <v>0.69189999999999996</v>
       </c>
       <c r="C29">
-        <v>0.3</v>
+        <v>0.27250000000000002</v>
       </c>
       <c r="D29">
-        <v>0.5</v>
+        <v>0.2601</v>
       </c>
       <c r="E29">
-        <v>0.7</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="F29">
         <v>0.5</v>
@@ -12548,16 +12536,16 @@
         <v>2</v>
       </c>
       <c r="B30">
-        <v>0.9</v>
+        <v>0.69189999999999996</v>
       </c>
       <c r="C30">
-        <v>0.3</v>
+        <v>0.27250000000000002</v>
       </c>
       <c r="D30">
-        <v>0.5</v>
+        <v>0.2601</v>
       </c>
       <c r="E30">
-        <v>0.7</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="F30">
         <v>0.5</v>
@@ -12580,16 +12568,16 @@
         <v>3</v>
       </c>
       <c r="B31">
-        <v>0.9</v>
+        <v>0.69189999999999996</v>
       </c>
       <c r="C31">
-        <v>0.3</v>
+        <v>0.27250000000000002</v>
       </c>
       <c r="D31">
-        <v>0.5</v>
+        <v>0.2601</v>
       </c>
       <c r="E31">
-        <v>0.7</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="F31">
         <v>0.5</v>
@@ -12612,16 +12600,16 @@
         <v>4</v>
       </c>
       <c r="B32">
-        <v>0.9</v>
+        <v>0.69189999999999996</v>
       </c>
       <c r="C32">
-        <v>0.3</v>
+        <v>0.27250000000000002</v>
       </c>
       <c r="D32">
-        <v>0.5</v>
+        <v>0.2601</v>
       </c>
       <c r="E32">
-        <v>0.7</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="F32">
         <v>0.5</v>
@@ -12644,16 +12632,16 @@
         <v>5</v>
       </c>
       <c r="B33">
-        <v>0.9</v>
+        <v>0.69189999999999996</v>
       </c>
       <c r="C33">
-        <v>0.3</v>
+        <v>0.27250000000000002</v>
       </c>
       <c r="D33">
-        <v>0.5</v>
+        <v>0.2601</v>
       </c>
       <c r="E33">
-        <v>0.7</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="F33">
         <v>0.5</v>
@@ -12679,16 +12667,16 @@
         <v>6</v>
       </c>
       <c r="B34">
-        <v>0.9</v>
+        <v>0.69189999999999996</v>
       </c>
       <c r="C34">
-        <v>0.3</v>
+        <v>0.27250000000000002</v>
       </c>
       <c r="D34">
-        <v>0.5</v>
+        <v>0.2601</v>
       </c>
       <c r="E34">
-        <v>0.7</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="F34">
         <v>0.5</v>
@@ -12711,16 +12699,16 @@
         <v>7</v>
       </c>
       <c r="B35">
-        <v>0.9</v>
+        <v>0.69189999999999996</v>
       </c>
       <c r="C35">
-        <v>0.3</v>
+        <v>0.27250000000000002</v>
       </c>
       <c r="D35">
-        <v>0.5</v>
+        <v>0.2601</v>
       </c>
       <c r="E35">
-        <v>0.7</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="F35">
         <v>0.5</v>
@@ -12743,16 +12731,16 @@
         <v>8</v>
       </c>
       <c r="B36">
-        <v>0.9</v>
+        <v>0.69189999999999996</v>
       </c>
       <c r="C36">
-        <v>0.3</v>
+        <v>0.27250000000000002</v>
       </c>
       <c r="D36">
-        <v>0.5</v>
+        <v>0.2601</v>
       </c>
       <c r="E36">
-        <v>0.7</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="F36">
         <v>0.5</v>
@@ -12775,16 +12763,16 @@
         <v>9</v>
       </c>
       <c r="B37">
-        <v>0.9</v>
+        <v>0.69189999999999996</v>
       </c>
       <c r="C37">
-        <v>0.3</v>
+        <v>0.27250000000000002</v>
       </c>
       <c r="D37">
-        <v>0.5</v>
+        <v>0.2601</v>
       </c>
       <c r="E37">
-        <v>0.7</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="F37">
         <v>0.5</v>
@@ -12807,16 +12795,16 @@
         <v>10</v>
       </c>
       <c r="B38">
-        <v>0.9</v>
+        <v>0.69189999999999996</v>
       </c>
       <c r="C38">
-        <v>0.3</v>
+        <v>0.27250000000000002</v>
       </c>
       <c r="D38">
-        <v>0.5</v>
+        <v>0.2601</v>
       </c>
       <c r="E38">
-        <v>0.7</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="F38">
         <v>0.5</v>
@@ -12839,16 +12827,16 @@
         <v>11</v>
       </c>
       <c r="B39">
-        <v>0.9</v>
+        <v>0.69189999999999996</v>
       </c>
       <c r="C39">
-        <v>0.3</v>
+        <v>0.27250000000000002</v>
       </c>
       <c r="D39">
-        <v>0.5</v>
+        <v>0.2601</v>
       </c>
       <c r="E39">
-        <v>0.7</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="F39">
         <v>0.5</v>
@@ -12871,16 +12859,16 @@
         <v>12</v>
       </c>
       <c r="B40">
-        <v>0.9</v>
+        <v>0.69189999999999996</v>
       </c>
       <c r="C40">
-        <v>0.3</v>
+        <v>0.27250000000000002</v>
       </c>
       <c r="D40">
-        <v>0.5</v>
+        <v>0.2601</v>
       </c>
       <c r="E40">
-        <v>0.7</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="F40">
         <v>0.5</v>
@@ -12903,16 +12891,16 @@
         <v>13</v>
       </c>
       <c r="B41">
-        <v>0.9</v>
+        <v>0.69189999999999996</v>
       </c>
       <c r="C41">
-        <v>0.3</v>
+        <v>0.27250000000000002</v>
       </c>
       <c r="D41">
-        <v>0.5</v>
+        <v>0.2601</v>
       </c>
       <c r="E41">
-        <v>0.7</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="F41">
         <v>0.5</v>
@@ -12935,16 +12923,16 @@
         <v>14</v>
       </c>
       <c r="B42">
-        <v>0.9</v>
+        <v>0.69189999999999996</v>
       </c>
       <c r="C42">
-        <v>0.3</v>
+        <v>0.27250000000000002</v>
       </c>
       <c r="D42">
-        <v>0.5</v>
+        <v>0.2601</v>
       </c>
       <c r="E42">
-        <v>0.7</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="F42">
         <v>0.5</v>
@@ -12967,16 +12955,16 @@
         <v>15</v>
       </c>
       <c r="B43">
-        <v>0.9</v>
+        <v>0.69189999999999996</v>
       </c>
       <c r="C43">
-        <v>0.3</v>
+        <v>0.27250000000000002</v>
       </c>
       <c r="D43">
-        <v>0.5</v>
+        <v>0.2601</v>
       </c>
       <c r="E43">
-        <v>0.7</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="F43">
         <v>0.5</v>
@@ -12999,16 +12987,16 @@
         <v>16</v>
       </c>
       <c r="B44">
-        <v>0.9</v>
+        <v>0.69189999999999996</v>
       </c>
       <c r="C44">
-        <v>0.3</v>
+        <v>0.27250000000000002</v>
       </c>
       <c r="D44">
-        <v>0.5</v>
+        <v>0.2601</v>
       </c>
       <c r="E44">
-        <v>0.7</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="F44">
         <v>0.5</v>
@@ -13031,16 +13019,16 @@
         <v>17</v>
       </c>
       <c r="B45">
-        <v>0.9</v>
+        <v>0.69189999999999996</v>
       </c>
       <c r="C45">
-        <v>0.3</v>
+        <v>0.27250000000000002</v>
       </c>
       <c r="D45">
-        <v>0.5</v>
+        <v>0.2601</v>
       </c>
       <c r="E45">
-        <v>0.7</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="F45">
         <v>0.5</v>
@@ -13063,16 +13051,16 @@
         <v>18</v>
       </c>
       <c r="B46">
-        <v>0.9</v>
+        <v>0.69189999999999996</v>
       </c>
       <c r="C46">
-        <v>0.3</v>
+        <v>0.27250000000000002</v>
       </c>
       <c r="D46">
-        <v>0.5</v>
+        <v>0.2601</v>
       </c>
       <c r="E46">
-        <v>0.7</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="F46">
         <v>0.5</v>
@@ -13095,16 +13083,16 @@
         <v>19</v>
       </c>
       <c r="B47">
-        <v>0.9</v>
+        <v>0.69189999999999996</v>
       </c>
       <c r="C47">
-        <v>0.3</v>
+        <v>0.27250000000000002</v>
       </c>
       <c r="D47">
-        <v>0.5</v>
+        <v>0.2601</v>
       </c>
       <c r="E47">
-        <v>0.7</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="F47">
         <v>0.5</v>
@@ -13127,16 +13115,16 @@
         <v>20</v>
       </c>
       <c r="B48">
-        <v>0.9</v>
+        <v>0.69189999999999996</v>
       </c>
       <c r="C48">
-        <v>0.3</v>
+        <v>0.27250000000000002</v>
       </c>
       <c r="D48">
-        <v>0.5</v>
+        <v>0.2601</v>
       </c>
       <c r="E48">
-        <v>0.7</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="F48">
         <v>0.5</v>
@@ -13159,16 +13147,16 @@
         <v>21</v>
       </c>
       <c r="B49">
-        <v>0.9</v>
+        <v>0.69189999999999996</v>
       </c>
       <c r="C49">
-        <v>0.3</v>
+        <v>0.27250000000000002</v>
       </c>
       <c r="D49">
-        <v>0.5</v>
+        <v>0.2601</v>
       </c>
       <c r="E49">
-        <v>0.7</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="F49">
         <v>0.5</v>
@@ -13191,16 +13179,16 @@
         <v>22</v>
       </c>
       <c r="B50">
-        <v>0.9</v>
+        <v>0.69189999999999996</v>
       </c>
       <c r="C50">
-        <v>0.3</v>
+        <v>0.27250000000000002</v>
       </c>
       <c r="D50">
-        <v>0.5</v>
+        <v>0.2601</v>
       </c>
       <c r="E50">
-        <v>0.7</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="F50">
         <v>0.5</v>
@@ -13223,16 +13211,16 @@
         <v>23</v>
       </c>
       <c r="B51">
-        <v>0.9</v>
+        <v>0.69189999999999996</v>
       </c>
       <c r="C51">
-        <v>0.3</v>
+        <v>0.27250000000000002</v>
       </c>
       <c r="D51">
-        <v>0.5</v>
+        <v>0.2601</v>
       </c>
       <c r="E51">
-        <v>0.7</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="F51">
         <v>0.5</v>
@@ -13255,16 +13243,16 @@
         <v>24</v>
       </c>
       <c r="B52">
-        <v>0.9</v>
+        <v>0.69189999999999996</v>
       </c>
       <c r="C52">
-        <v>0.3</v>
+        <v>0.27250000000000002</v>
       </c>
       <c r="D52">
-        <v>0.5</v>
+        <v>0.2601</v>
       </c>
       <c r="E52">
-        <v>0.7</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="F52">
         <v>0.5</v>
@@ -13280,38 +13268,6 @@
       </c>
       <c r="J52">
         <v>0.1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B53">
-        <v>0.9</v>
-      </c>
-      <c r="C53">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B54">
-        <v>0.9</v>
-      </c>
-      <c r="C54">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B55">
-        <v>0.9</v>
-      </c>
-      <c r="C55">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B56">
-        <v>0.9</v>
-      </c>
-      <c r="C56">
-        <v>0.3</v>
       </c>
     </row>
   </sheetData>

--- a/PythonEnvironment/resources/all_results_new.xlsx
+++ b/PythonEnvironment/resources/all_results_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\_Thesis\Scavenger\PythonEnvironment\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038704E7-7275-43E6-8CBD-3807CD901EDB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAE37DE-EECD-4720-A376-0F8BF31EFA9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -814,79 +814,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0.33333333300000001</c:v>
+                  <c:v>0.29166666699999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.38095238100000001</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35416666699999999</c:v>
+                  <c:v>0.30952381000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35416666699999999</c:v>
+                  <c:v>0.3125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.33333333300000001</c:v>
+                  <c:v>0.41666666699999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.38888888900000002</c:v>
+                  <c:v>0.3125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.47619047599999997</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.38888888900000002</c:v>
+                  <c:v>0.54761904800000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.58333333300000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.64285714299999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.55555555599999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.47619047599999997</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.70370370400000004</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.66666666699999999</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.64285714299999996</c:v>
+                  <c:v>0.77777777800000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.77083333300000001</c:v>
+                  <c:v>0.60416666699999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.72916666699999999</c:v>
+                  <c:v>0.57407407399999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.83333333300000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.85416666699999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.88888888899999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.88888888899999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.88888888899999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>0.72222222199999997</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="23">
                   <c:v>0.75</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.79629629599999996</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.71666666700000003</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.71666666700000003</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.78333333299999997</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.83333333300000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.78333333299999997</c:v>
-                </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.78333333299999997</c:v>
+                  <c:v>0.61666666699999995</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
@@ -1428,79 +1428,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>0.2601</c:v>
+                  <c:v>0.25840000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2601</c:v>
+                  <c:v>0.25840000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2601</c:v>
+                  <c:v>0.25840000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2601</c:v>
+                  <c:v>0.25840000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2601</c:v>
+                  <c:v>0.25840000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2601</c:v>
+                  <c:v>0.25840000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2601</c:v>
+                  <c:v>0.25840000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2601</c:v>
+                  <c:v>0.25840000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.2601</c:v>
+                  <c:v>0.25840000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2601</c:v>
+                  <c:v>0.25840000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.2601</c:v>
+                  <c:v>0.25840000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.2601</c:v>
+                  <c:v>0.25840000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.2601</c:v>
+                  <c:v>0.25840000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.2601</c:v>
+                  <c:v>0.25840000000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.2601</c:v>
+                  <c:v>0.25840000000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.2601</c:v>
+                  <c:v>0.25840000000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.2601</c:v>
+                  <c:v>0.25840000000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.2601</c:v>
+                  <c:v>0.25840000000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.2601</c:v>
+                  <c:v>0.25840000000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.2601</c:v>
+                  <c:v>0.25840000000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.2601</c:v>
+                  <c:v>0.25840000000000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.2601</c:v>
+                  <c:v>0.25840000000000002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.2601</c:v>
+                  <c:v>0.25840000000000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.2601</c:v>
+                  <c:v>0.25840000000000002</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.2601</c:v>
+                  <c:v>0.25840000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1674,79 +1674,79 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="26"/>
                       <c:pt idx="0">
-                        <c:v>0.625</c:v>
+                        <c:v>0.76</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.74444444399999998</c:v>
+                        <c:v>0.71</c:v>
                       </c:pt>
                       <c:pt idx="2">
+                        <c:v>0.76</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.6875</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.72</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
                         <c:v>0.75</c:v>
                       </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0.7</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0.811111111</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0.77500000000000002</c:v>
-                      </c:pt>
                       <c:pt idx="6">
-                        <c:v>0.78</c:v>
+                        <c:v>0.75</c:v>
                       </c:pt>
                       <c:pt idx="7">
+                        <c:v>0.89</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.75555555600000002</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
                         <c:v>0.74</c:v>
                       </c:pt>
-                      <c:pt idx="8">
-                        <c:v>0.77500000000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>0.82</c:v>
-                      </c:pt>
                       <c:pt idx="10">
-                        <c:v>0.82222222199999995</c:v>
+                        <c:v>0.8</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>0.87777777800000001</c:v>
+                        <c:v>0.83</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>0.84</c:v>
+                        <c:v>0.87</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>0.9</c:v>
+                        <c:v>0.79</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>0.9</c:v>
+                        <c:v>0.86</c:v>
                       </c:pt>
                       <c:pt idx="15">
                         <c:v>0.89</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>0.8</c:v>
+                        <c:v>0.87</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>0.88</c:v>
+                        <c:v>0.96</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>0.84</c:v>
+                        <c:v>0.96</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>0.87</c:v>
+                        <c:v>0.92</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>0.87</c:v>
+                        <c:v>0.89</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>0.92</c:v>
+                        <c:v>0.98</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>0.96</c:v>
+                        <c:v>0.97</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>0.92</c:v>
+                        <c:v>0.94</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>0.96</c:v>
+                        <c:v>0.99</c:v>
                       </c:pt>
                       <c:pt idx="25">
                         <c:v>0</c:v>
@@ -1913,79 +1913,79 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="26"/>
                       <c:pt idx="0">
+                        <c:v>0.48</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.52</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.51</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.44444444399999999</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.43</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
                         <c:v>0.47499999999999998</c:v>
                       </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0.47777777799999999</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
+                      <c:pt idx="6">
+                        <c:v>0.45714285700000001</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.514285714</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.52857142899999998</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.53333333299999997</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.45555555599999997</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
                         <c:v>0.62222222199999999</c:v>
                       </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0.62222222199999999</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0.54</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0.71250000000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
+                      <c:pt idx="12">
+                        <c:v>0.67</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.68</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
                         <c:v>0.6</c:v>
                       </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0.65</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>0.71250000000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>0.65</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>0.5</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>0.49</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>0.46</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>0.53</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>0.49</c:v>
-                      </c:pt>
                       <c:pt idx="15">
-                        <c:v>0.62222222199999999</c:v>
+                        <c:v>0.64</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>0.57999999999999996</c:v>
+                        <c:v>0.64</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>0.63</c:v>
+                        <c:v>0.62</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>0.66</c:v>
+                        <c:v>0.64</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>0.71</c:v>
+                        <c:v>0.64</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>0.71111111100000002</c:v>
+                        <c:v>0.77</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>0.65</c:v>
+                        <c:v>0.77777777800000003</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>0.65</c:v>
+                        <c:v>0.7</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>0.61</c:v>
+                        <c:v>0.65555555600000004</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>0.65555555600000004</c:v>
+                        <c:v>0.83333333300000001</c:v>
                       </c:pt>
                       <c:pt idx="25">
                         <c:v>0</c:v>
@@ -2155,76 +2155,76 @@
                         <c:v>0.3</c:v>
                       </c:pt>
                       <c:pt idx="1">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.366666667</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.37142857099999999</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.58333333300000001</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.44</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.95</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.22</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.24</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.37142857099999999</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.34285714299999998</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.55000000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.58333333300000001</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.54444444400000003</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.67142857099999997</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.428571429</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.34444444400000002</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0.46666666699999998</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
                         <c:v>0.43333333299999999</c:v>
                       </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0.38</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0.35</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0.56000000000000005</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0.55000000000000004</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0.5</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0.66</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>0.56666666700000001</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>0.46</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>0.56000000000000005</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>0.6875</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>0.56000000000000005</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>0.68571428599999995</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>0.76249999999999996</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>0.7</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>0.72222222199999997</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>0.74285714300000005</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>0.8</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>0.88749999999999996</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>0.9</c:v>
-                      </c:pt>
                       <c:pt idx="21">
-                        <c:v>0.74285714300000005</c:v>
+                        <c:v>0.58571428599999997</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>0.95714285700000001</c:v>
+                        <c:v>0.63749999999999996</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>0.95</c:v>
+                        <c:v>0.75</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>1</c:v>
+                        <c:v>0.71250000000000002</c:v>
                       </c:pt>
                       <c:pt idx="25">
                         <c:v>0</c:v>
@@ -2390,79 +2390,79 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="26"/>
                       <c:pt idx="0">
-                        <c:v>0.2</c:v>
+                        <c:v>0.157142857</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.366666667</c:v>
+                        <c:v>0.26250000000000001</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0.26</c:v>
+                        <c:v>0.28000000000000003</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0.27142857100000001</c:v>
+                        <c:v>0.44285714300000001</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>0.4</c:v>
+                        <c:v>0.41666666699999999</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>0.3</c:v>
+                        <c:v>0.65</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>0.46666666699999998</c:v>
+                        <c:v>0.46</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>0.4</c:v>
+                        <c:v>0.38</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>0.3</c:v>
+                        <c:v>0.56666666700000001</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>0.2</c:v>
+                        <c:v>0.6</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>0.2</c:v>
+                        <c:v>0.55000000000000004</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>0.25</c:v>
+                        <c:v>0.6</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>0.26666666700000002</c:v>
+                        <c:v>0.54444444400000003</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>0.36</c:v>
+                        <c:v>0.61</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>0.33333333300000001</c:v>
+                        <c:v>0.61666666699999995</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>0.4</c:v>
+                        <c:v>0.55000000000000004</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>0.36</c:v>
+                        <c:v>0.63333333300000005</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>0.5</c:v>
+                        <c:v>0.61428571399999998</c:v>
                       </c:pt>
                       <c:pt idx="18">
                         <c:v>0.6</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>0.6</c:v>
+                        <c:v>0.5625</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>0.6</c:v>
+                        <c:v>0.64444444400000001</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>0.6</c:v>
+                        <c:v>0.67500000000000004</c:v>
                       </c:pt>
                       <c:pt idx="22">
                         <c:v>0.6</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>0.6</c:v>
+                        <c:v>0.58750000000000002</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>0.6</c:v>
+                        <c:v>0.57499999999999996</c:v>
                       </c:pt>
                       <c:pt idx="25">
                         <c:v>0</c:v>
@@ -2628,76 +2628,76 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="26"/>
                       <c:pt idx="0">
+                        <c:v>0.242857143</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
                         <c:v>0.28571428599999998</c:v>
                       </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0.326530612</c:v>
-                      </c:pt>
                       <c:pt idx="2">
+                        <c:v>0.321428571</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.39285714300000002</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.54285714299999999</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.23809523799999999</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.33333333300000001</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
                         <c:v>0.28571428599999998</c:v>
                       </c:pt>
-                      <c:pt idx="3">
+                      <c:pt idx="8">
+                        <c:v>0.28571428599999998</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.37142857099999999</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.244897959</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.39285714300000002</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.26984127000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.375</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.36734693899999998</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.38571428600000002</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.47619047599999997</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.38775510200000002</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.46938775500000002</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0.59523809500000002</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0.428571429</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
                         <c:v>0.55714285699999999</c:v>
                       </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0.38095238100000001</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0.47619047599999997</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0.45714285700000001</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0.452380952</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>0.33333333300000001</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>0.244897959</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>0.33035714300000002</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>0.41071428599999998</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>0.326530612</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>0.28571428599999998</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>0.25</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>0.4</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>0.30612244900000002</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>0.43877550999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>0.5</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>0.54761904800000005</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>0.66071428600000004</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>0.571428571</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>0.66964285700000004</c:v>
-                      </c:pt>
                       <c:pt idx="23">
-                        <c:v>0.51190476200000001</c:v>
+                        <c:v>0.54365079400000005</c:v>
                       </c:pt>
                       <c:pt idx="24">
                         <c:v>0.616071429</c:v>
@@ -2872,79 +2872,79 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="26"/>
                       <c:pt idx="0">
-                        <c:v>0.31944444399999999</c:v>
+                        <c:v>0.36111111099999998</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.383333333</c:v>
+                        <c:v>0.44444444399999999</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0.36419753100000002</c:v>
+                        <c:v>0.41666666699999999</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0.33333333300000001</c:v>
+                        <c:v>0.60648148099999999</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>0.657407407</c:v>
+                        <c:v>0.54629629599999996</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>0.58333333300000001</c:v>
+                        <c:v>0.72916666699999999</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>0.48611111099999998</c:v>
+                        <c:v>0.43055555600000001</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>0.6</c:v>
+                        <c:v>0.36507936499999999</c:v>
                       </c:pt>
                       <c:pt idx="8">
+                        <c:v>0.46666666699999998</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.43055555600000001</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.47777777799999999</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.44444444399999999</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.48055555599999999</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.54320987700000001</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.53055555600000004</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.56944444400000005</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.563888889</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.55555555599999995</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.40833333300000002</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
                         <c:v>0.34567901200000001</c:v>
                       </c:pt>
-                      <c:pt idx="9">
-                        <c:v>0.36111111099999998</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>0.40277777799999998</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>0.37654321000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>0.38888888900000002</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>0.38095238100000001</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>0.33333333300000001</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>0.33333333300000001</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>0.45679012299999999</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>0.47222222200000002</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>0.41358024700000001</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>0.38888888900000002</c:v>
-                      </c:pt>
                       <c:pt idx="20">
-                        <c:v>0.427777778</c:v>
+                        <c:v>0.37037037</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>0.40277777799999998</c:v>
+                        <c:v>0.301587302</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>0.395061728</c:v>
+                        <c:v>0.34567901200000001</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>0.4375</c:v>
+                        <c:v>0.56666666700000001</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>0.407407407</c:v>
+                        <c:v>0.55555555599999995</c:v>
                       </c:pt>
                       <c:pt idx="25">
                         <c:v>0</c:v>
@@ -3356,8 +3356,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.9770675286981707E-2"/>
-          <c:y val="0.111036263111729"/>
+          <c:x val="6.7009256849357518E-2"/>
+          <c:y val="0.10844097829880765"/>
           <c:w val="0.79296273062296296"/>
           <c:h val="0.773254861969355"/>
         </c:manualLayout>
@@ -3496,79 +3496,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0.625</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.74444444399999998</c:v>
+                  <c:v>0.71</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.75</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.811111111</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.77500000000000002</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.78</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.75555555600000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.74</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.77500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.82</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.82222222199999995</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.87777777800000001</c:v>
+                  <c:v>0.83</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.84</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.9</c:v>
+                  <c:v>0.79</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.9</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.8</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.88</c:v>
+                  <c:v>0.96</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.84</c:v>
+                  <c:v>0.96</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.87</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.87</c:v>
+                  <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.92</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.96</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.92</c:v>
+                  <c:v>0.94</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.96</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
@@ -3722,79 +3722,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.44444444399999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.47499999999999998</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.47777777799999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
+                  <c:v>0.45714285700000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.514285714</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.52857142899999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.53333333299999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.45555555599999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0.62222222199999999</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.62222222199999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.54</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.71250000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.6</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.71250000000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.49</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.53</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.49</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.62222222199999999</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.57999999999999996</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.63</c:v>
+                  <c:v>0.62</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.66</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.71</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.71111111100000002</c:v>
+                  <c:v>0.77</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.65</c:v>
+                  <c:v>0.77777777800000003</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.65</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.61</c:v>
+                  <c:v>0.65555555600000004</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.65555555600000004</c:v>
+                  <c:v>0.83333333300000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
@@ -3946,76 +3946,76 @@
                   <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.366666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37142857099999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.58333333300000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.37142857099999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.34285714299999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.58333333300000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.54444444400000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.67142857099999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.428571429</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.34444444400000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.46666666699999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.43333333299999999</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.56000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.66</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.56666666700000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.56000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.6875</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.56000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.68571428599999995</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.76249999999999996</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.72222222199999997</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.74285714300000005</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.88749999999999996</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.9</c:v>
-                </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.74285714300000005</c:v>
+                  <c:v>0.58571428599999997</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.95714285700000001</c:v>
+                  <c:v>0.63749999999999996</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.95</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>0.71250000000000002</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
@@ -4163,79 +4163,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0.2</c:v>
+                  <c:v>0.157142857</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.366666667</c:v>
+                  <c:v>0.26250000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.27142857100000001</c:v>
+                  <c:v>0.44285714300000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4</c:v>
+                  <c:v>0.41666666699999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.3</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.46666666699999998</c:v>
+                  <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.4</c:v>
+                  <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.3</c:v>
+                  <c:v>0.56666666700000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.2</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.25</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.26666666700000002</c:v>
+                  <c:v>0.54444444400000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.36</c:v>
+                  <c:v>0.61</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.33333333300000001</c:v>
+                  <c:v>0.61666666699999995</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.4</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.36</c:v>
+                  <c:v>0.63333333300000005</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.5</c:v>
+                  <c:v>0.61428571399999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.6</c:v>
+                  <c:v>0.5625</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.6</c:v>
+                  <c:v>0.64444444400000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.6</c:v>
+                  <c:v>0.67500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.6</c:v>
+                  <c:v>0.58750000000000002</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.6</c:v>
+                  <c:v>0.57499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
@@ -4369,79 +4369,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>0.82799999999999996</c:v>
+                  <c:v>0.77029999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.82799999999999996</c:v>
+                  <c:v>0.77029999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.82799999999999996</c:v>
+                  <c:v>0.77029999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.82799999999999996</c:v>
+                  <c:v>0.77029999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.82799999999999996</c:v>
+                  <c:v>0.77029999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.82799999999999996</c:v>
+                  <c:v>0.77029999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.82799999999999996</c:v>
+                  <c:v>0.77029999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.82799999999999996</c:v>
+                  <c:v>0.77029999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.82799999999999996</c:v>
+                  <c:v>0.77029999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.82799999999999996</c:v>
+                  <c:v>0.77029999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.82799999999999996</c:v>
+                  <c:v>0.77029999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.82799999999999996</c:v>
+                  <c:v>0.77029999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.82799999999999996</c:v>
+                  <c:v>0.77029999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.82799999999999996</c:v>
+                  <c:v>0.77029999999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.82799999999999996</c:v>
+                  <c:v>0.77029999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.82799999999999996</c:v>
+                  <c:v>0.77029999999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.82799999999999996</c:v>
+                  <c:v>0.77029999999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.82799999999999996</c:v>
+                  <c:v>0.77029999999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.82799999999999996</c:v>
+                  <c:v>0.77029999999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.82799999999999996</c:v>
+                  <c:v>0.77029999999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.82799999999999996</c:v>
+                  <c:v>0.77029999999999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.82799999999999996</c:v>
+                  <c:v>0.77029999999999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.82799999999999996</c:v>
+                  <c:v>0.77029999999999998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.82799999999999996</c:v>
+                  <c:v>0.77029999999999998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.82799999999999996</c:v>
+                  <c:v>0.77029999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4573,79 +4573,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>0.48099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>0.48099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>0.48099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5</c:v>
+                  <c:v>0.48099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5</c:v>
+                  <c:v>0.48099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>0.48099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5</c:v>
+                  <c:v>0.48099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.5</c:v>
+                  <c:v>0.48099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.5</c:v>
+                  <c:v>0.48099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.5</c:v>
+                  <c:v>0.48099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.5</c:v>
+                  <c:v>0.48099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.5</c:v>
+                  <c:v>0.48099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.5</c:v>
+                  <c:v>0.48099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.5</c:v>
+                  <c:v>0.48099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.5</c:v>
+                  <c:v>0.48099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.5</c:v>
+                  <c:v>0.48099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.5</c:v>
+                  <c:v>0.48099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.5</c:v>
+                  <c:v>0.48099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.5</c:v>
+                  <c:v>0.48099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.5</c:v>
+                  <c:v>0.48099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.5</c:v>
+                  <c:v>0.48099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.5</c:v>
+                  <c:v>0.48099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.5</c:v>
+                  <c:v>0.48099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.5</c:v>
+                  <c:v>0.48099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.5</c:v>
+                  <c:v>0.48099999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4775,79 +4775,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>0.3</c:v>
+                  <c:v>0.33069999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3</c:v>
+                  <c:v>0.33069999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3</c:v>
+                  <c:v>0.33069999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3</c:v>
+                  <c:v>0.33069999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3</c:v>
+                  <c:v>0.33069999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.3</c:v>
+                  <c:v>0.33069999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.3</c:v>
+                  <c:v>0.33069999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.3</c:v>
+                  <c:v>0.33069999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.3</c:v>
+                  <c:v>0.33069999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.3</c:v>
+                  <c:v>0.33069999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.3</c:v>
+                  <c:v>0.33069999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.3</c:v>
+                  <c:v>0.33069999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.3</c:v>
+                  <c:v>0.33069999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.3</c:v>
+                  <c:v>0.33069999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.3</c:v>
+                  <c:v>0.33069999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.3</c:v>
+                  <c:v>0.33069999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.3</c:v>
+                  <c:v>0.33069999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.3</c:v>
+                  <c:v>0.33069999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.3</c:v>
+                  <c:v>0.33069999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.3</c:v>
+                  <c:v>0.33069999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.3</c:v>
+                  <c:v>0.33069999999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.3</c:v>
+                  <c:v>0.33069999999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.3</c:v>
+                  <c:v>0.33069999999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.3</c:v>
+                  <c:v>0.33069999999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.3</c:v>
+                  <c:v>0.33069999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4977,79 +4977,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>0.1</c:v>
+                  <c:v>0.18870000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>0.18870000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1</c:v>
+                  <c:v>0.18870000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1</c:v>
+                  <c:v>0.18870000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1</c:v>
+                  <c:v>0.18870000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1</c:v>
+                  <c:v>0.18870000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1</c:v>
+                  <c:v>0.18870000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1</c:v>
+                  <c:v>0.18870000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1</c:v>
+                  <c:v>0.18870000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1</c:v>
+                  <c:v>0.18870000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1</c:v>
+                  <c:v>0.18870000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1</c:v>
+                  <c:v>0.18870000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.1</c:v>
+                  <c:v>0.18870000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.1</c:v>
+                  <c:v>0.18870000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.1</c:v>
+                  <c:v>0.18870000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.1</c:v>
+                  <c:v>0.18870000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.1</c:v>
+                  <c:v>0.18870000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.1</c:v>
+                  <c:v>0.18870000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.1</c:v>
+                  <c:v>0.18870000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.1</c:v>
+                  <c:v>0.18870000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.1</c:v>
+                  <c:v>0.18870000000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.1</c:v>
+                  <c:v>0.18870000000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.1</c:v>
+                  <c:v>0.18870000000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.1</c:v>
+                  <c:v>0.18870000000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.1</c:v>
+                  <c:v>0.18870000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5467,76 +5467,76 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="26"/>
                       <c:pt idx="0">
+                        <c:v>0.242857143</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
                         <c:v>0.28571428599999998</c:v>
                       </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0.326530612</c:v>
-                      </c:pt>
                       <c:pt idx="2">
+                        <c:v>0.321428571</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.39285714300000002</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.54285714299999999</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.23809523799999999</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.33333333300000001</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
                         <c:v>0.28571428599999998</c:v>
                       </c:pt>
-                      <c:pt idx="3">
+                      <c:pt idx="8">
+                        <c:v>0.28571428599999998</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.37142857099999999</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.244897959</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.39285714300000002</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.26984127000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.375</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.36734693899999998</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.38571428600000002</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.47619047599999997</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.38775510200000002</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.46938775500000002</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0.59523809500000002</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0.428571429</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
                         <c:v>0.55714285699999999</c:v>
                       </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0.38095238100000001</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0.47619047599999997</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0.45714285700000001</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0.452380952</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>0.33333333300000001</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>0.244897959</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>0.33035714300000002</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>0.41071428599999998</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>0.326530612</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>0.28571428599999998</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>0.25</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>0.4</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>0.30612244900000002</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>0.43877550999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>0.5</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>0.54761904800000005</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>0.66071428600000004</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>0.571428571</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>0.66964285700000004</c:v>
-                      </c:pt>
                       <c:pt idx="23">
-                        <c:v>0.51190476200000001</c:v>
+                        <c:v>0.54365079400000005</c:v>
                       </c:pt>
                       <c:pt idx="24">
                         <c:v>0.616071429</c:v>
@@ -5711,79 +5711,79 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="26"/>
                       <c:pt idx="0">
-                        <c:v>0.31944444399999999</c:v>
+                        <c:v>0.36111111099999998</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.383333333</c:v>
+                        <c:v>0.44444444399999999</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0.36419753100000002</c:v>
+                        <c:v>0.41666666699999999</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0.33333333300000001</c:v>
+                        <c:v>0.60648148099999999</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>0.657407407</c:v>
+                        <c:v>0.54629629599999996</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>0.58333333300000001</c:v>
+                        <c:v>0.72916666699999999</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>0.48611111099999998</c:v>
+                        <c:v>0.43055555600000001</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>0.6</c:v>
+                        <c:v>0.36507936499999999</c:v>
                       </c:pt>
                       <c:pt idx="8">
+                        <c:v>0.46666666699999998</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.43055555600000001</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.47777777799999999</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.44444444399999999</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.48055555599999999</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.54320987700000001</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.53055555600000004</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.56944444400000005</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.563888889</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.55555555599999995</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.40833333300000002</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
                         <c:v>0.34567901200000001</c:v>
                       </c:pt>
-                      <c:pt idx="9">
-                        <c:v>0.36111111099999998</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>0.40277777799999998</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>0.37654321000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>0.38888888900000002</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>0.38095238100000001</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>0.33333333300000001</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>0.33333333300000001</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>0.45679012299999999</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>0.47222222200000002</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>0.41358024700000001</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>0.38888888900000002</c:v>
-                      </c:pt>
                       <c:pt idx="20">
-                        <c:v>0.427777778</c:v>
+                        <c:v>0.37037037</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>0.40277777799999998</c:v>
+                        <c:v>0.301587302</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>0.395061728</c:v>
+                        <c:v>0.34567901200000001</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>0.4375</c:v>
+                        <c:v>0.56666666700000001</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>0.407407407</c:v>
+                        <c:v>0.55555555599999995</c:v>
                       </c:pt>
                       <c:pt idx="25">
                         <c:v>0</c:v>
@@ -6199,79 +6199,79 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="26"/>
                       <c:pt idx="0">
-                        <c:v>0.33333333300000001</c:v>
+                        <c:v>0.29166666699999999</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.38095238100000001</c:v>
+                        <c:v>0.3</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0.35416666699999999</c:v>
+                        <c:v>0.30952381000000001</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0.35416666699999999</c:v>
+                        <c:v>0.3125</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>0.33333333300000001</c:v>
+                        <c:v>0.41666666699999999</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>0.38888888900000002</c:v>
+                        <c:v>0.3125</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>0.47619047599999997</c:v>
+                        <c:v>0.5</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>0.38888888900000002</c:v>
+                        <c:v>0.54761904800000005</c:v>
                       </c:pt>
                       <c:pt idx="8">
+                        <c:v>0.58333333300000001</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.6875</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.64285714299999996</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.55555555599999995</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
                         <c:v>0.5</c:v>
                       </c:pt>
-                      <c:pt idx="9">
-                        <c:v>0.5</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>0.47619047599999997</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>0.70370370400000004</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>0.66666666699999999</c:v>
-                      </c:pt>
                       <c:pt idx="13">
-                        <c:v>0.64285714299999996</c:v>
+                        <c:v>0.77777777800000003</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>0.77083333300000001</c:v>
+                        <c:v>0.60416666699999999</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>0.72916666699999999</c:v>
+                        <c:v>0.57407407399999999</c:v>
                       </c:pt>
                       <c:pt idx="16">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.83333333300000001</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.85416666699999999</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0.88888888899999996</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0.88888888899999996</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0.88888888899999996</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
                         <c:v>0.72222222199999997</c:v>
                       </c:pt>
-                      <c:pt idx="17">
+                      <c:pt idx="23">
                         <c:v>0.75</c:v>
                       </c:pt>
-                      <c:pt idx="18">
-                        <c:v>0.79629629599999996</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>0.71666666700000003</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>0.71666666700000003</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>0.78333333299999997</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>0.83333333300000001</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>0.78333333299999997</c:v>
-                      </c:pt>
                       <c:pt idx="24">
-                        <c:v>0.78333333299999997</c:v>
+                        <c:v>0.61666666699999995</c:v>
                       </c:pt>
                       <c:pt idx="25">
                         <c:v>0</c:v>
@@ -6824,76 +6824,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
+                  <c:v>0.242857143</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.28571428599999998</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.326530612</c:v>
-                </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.321428571</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39285714300000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.54285714299999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.23809523799999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33333333300000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.28571428599999998</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
+                  <c:v>0.28571428599999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.37142857099999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.244897959</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.39285714300000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.26984127000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.36734693899999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.38571428600000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.47619047599999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.38775510200000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.46938775500000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.59523809500000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.428571429</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>0.55714285699999999</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.38095238100000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.47619047599999997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.45714285700000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.452380952</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.33333333300000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.244897959</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.33035714300000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.41071428599999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.326530612</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.28571428599999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.30612244900000002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.43877550999999998</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.54761904800000005</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.66071428600000004</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.571428571</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.66964285700000004</c:v>
-                </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.51190476200000001</c:v>
+                  <c:v>0.54365079400000005</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.616071429</c:v>
@@ -7043,79 +7043,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0.31944444399999999</c:v>
+                  <c:v>0.36111111099999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.383333333</c:v>
+                  <c:v>0.44444444399999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.36419753100000002</c:v>
+                  <c:v>0.41666666699999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.33333333300000001</c:v>
+                  <c:v>0.60648148099999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.657407407</c:v>
+                  <c:v>0.54629629599999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.58333333300000001</c:v>
+                  <c:v>0.72916666699999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.48611111099999998</c:v>
+                  <c:v>0.43055555600000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.6</c:v>
+                  <c:v>0.36507936499999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.46666666699999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.43055555600000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.47777777799999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.44444444399999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.48055555599999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.54320987700000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.53055555600000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.56944444400000005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.563888889</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.55555555599999995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.40833333300000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>0.34567901200000001</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.36111111099999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.40277777799999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.37654321000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.38888888900000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.38095238100000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.33333333300000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.33333333300000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.45679012299999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.47222222200000002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.41358024700000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.38888888900000002</c:v>
-                </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.427777778</c:v>
+                  <c:v>0.37037037</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.40277777799999998</c:v>
+                  <c:v>0.301587302</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.395061728</c:v>
+                  <c:v>0.34567901200000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.4375</c:v>
+                  <c:v>0.56666666700000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.407407407</c:v>
+                  <c:v>0.55555555599999995</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
@@ -7248,79 +7248,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>0.3</c:v>
+                  <c:v>0.2697</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3</c:v>
+                  <c:v>0.2697</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3</c:v>
+                  <c:v>0.2697</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3</c:v>
+                  <c:v>0.2697</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3</c:v>
+                  <c:v>0.2697</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.3</c:v>
+                  <c:v>0.2697</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.3</c:v>
+                  <c:v>0.2697</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.3</c:v>
+                  <c:v>0.2697</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.3</c:v>
+                  <c:v>0.2697</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.3</c:v>
+                  <c:v>0.2697</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.3</c:v>
+                  <c:v>0.2697</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.3</c:v>
+                  <c:v>0.2697</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.3</c:v>
+                  <c:v>0.2697</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.3</c:v>
+                  <c:v>0.2697</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.3</c:v>
+                  <c:v>0.2697</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.3</c:v>
+                  <c:v>0.2697</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.3</c:v>
+                  <c:v>0.2697</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.3</c:v>
+                  <c:v>0.2697</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.3</c:v>
+                  <c:v>0.2697</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.3</c:v>
+                  <c:v>0.2697</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.3</c:v>
+                  <c:v>0.2697</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.3</c:v>
+                  <c:v>0.2697</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.3</c:v>
+                  <c:v>0.2697</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.3</c:v>
+                  <c:v>0.2697</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.3</c:v>
+                  <c:v>0.2697</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7450,79 +7450,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>0.1</c:v>
+                  <c:v>0.36780000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>0.36780000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1</c:v>
+                  <c:v>0.36780000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1</c:v>
+                  <c:v>0.36780000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1</c:v>
+                  <c:v>0.36780000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1</c:v>
+                  <c:v>0.36780000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1</c:v>
+                  <c:v>0.36780000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1</c:v>
+                  <c:v>0.36780000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1</c:v>
+                  <c:v>0.36780000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1</c:v>
+                  <c:v>0.36780000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1</c:v>
+                  <c:v>0.36780000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1</c:v>
+                  <c:v>0.36780000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.1</c:v>
+                  <c:v>0.36780000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.1</c:v>
+                  <c:v>0.36780000000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.1</c:v>
+                  <c:v>0.36780000000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.1</c:v>
+                  <c:v>0.36780000000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.1</c:v>
+                  <c:v>0.36780000000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.1</c:v>
+                  <c:v>0.36780000000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.1</c:v>
+                  <c:v>0.36780000000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.1</c:v>
+                  <c:v>0.36780000000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.1</c:v>
+                  <c:v>0.36780000000000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.1</c:v>
+                  <c:v>0.36780000000000002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.1</c:v>
+                  <c:v>0.36780000000000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.1</c:v>
+                  <c:v>0.36780000000000002</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.1</c:v>
+                  <c:v>0.36780000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7940,79 +7940,79 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="26"/>
                       <c:pt idx="0">
-                        <c:v>0.625</c:v>
+                        <c:v>0.76</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.74444444399999998</c:v>
+                        <c:v>0.71</c:v>
                       </c:pt>
                       <c:pt idx="2">
+                        <c:v>0.76</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.6875</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.72</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
                         <c:v>0.75</c:v>
                       </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0.7</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0.811111111</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0.77500000000000002</c:v>
-                      </c:pt>
                       <c:pt idx="6">
-                        <c:v>0.78</c:v>
+                        <c:v>0.75</c:v>
                       </c:pt>
                       <c:pt idx="7">
+                        <c:v>0.89</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.75555555600000002</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
                         <c:v>0.74</c:v>
                       </c:pt>
-                      <c:pt idx="8">
-                        <c:v>0.77500000000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>0.82</c:v>
-                      </c:pt>
                       <c:pt idx="10">
-                        <c:v>0.82222222199999995</c:v>
+                        <c:v>0.8</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>0.87777777800000001</c:v>
+                        <c:v>0.83</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>0.84</c:v>
+                        <c:v>0.87</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>0.9</c:v>
+                        <c:v>0.79</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>0.9</c:v>
+                        <c:v>0.86</c:v>
                       </c:pt>
                       <c:pt idx="15">
                         <c:v>0.89</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>0.8</c:v>
+                        <c:v>0.87</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>0.88</c:v>
+                        <c:v>0.96</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>0.84</c:v>
+                        <c:v>0.96</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>0.87</c:v>
+                        <c:v>0.92</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>0.87</c:v>
+                        <c:v>0.89</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>0.92</c:v>
+                        <c:v>0.98</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>0.96</c:v>
+                        <c:v>0.97</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>0.92</c:v>
+                        <c:v>0.94</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>0.96</c:v>
+                        <c:v>0.99</c:v>
                       </c:pt>
                       <c:pt idx="25">
                         <c:v>0</c:v>
@@ -8179,79 +8179,79 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="26"/>
                       <c:pt idx="0">
+                        <c:v>0.48</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.52</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.51</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.44444444399999999</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.43</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
                         <c:v>0.47499999999999998</c:v>
                       </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0.47777777799999999</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
+                      <c:pt idx="6">
+                        <c:v>0.45714285700000001</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.514285714</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.52857142899999998</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.53333333299999997</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.45555555599999997</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
                         <c:v>0.62222222199999999</c:v>
                       </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0.62222222199999999</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0.54</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0.71250000000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
+                      <c:pt idx="12">
+                        <c:v>0.67</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.68</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
                         <c:v>0.6</c:v>
                       </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0.65</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>0.71250000000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>0.65</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>0.5</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>0.49</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>0.46</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>0.53</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>0.49</c:v>
-                      </c:pt>
                       <c:pt idx="15">
-                        <c:v>0.62222222199999999</c:v>
+                        <c:v>0.64</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>0.57999999999999996</c:v>
+                        <c:v>0.64</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>0.63</c:v>
+                        <c:v>0.62</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>0.66</c:v>
+                        <c:v>0.64</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>0.71</c:v>
+                        <c:v>0.64</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>0.71111111100000002</c:v>
+                        <c:v>0.77</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>0.65</c:v>
+                        <c:v>0.77777777800000003</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>0.65</c:v>
+                        <c:v>0.7</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>0.61</c:v>
+                        <c:v>0.65555555600000004</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>0.65555555600000004</c:v>
+                        <c:v>0.83333333300000001</c:v>
                       </c:pt>
                       <c:pt idx="25">
                         <c:v>0</c:v>
@@ -8421,76 +8421,76 @@
                         <c:v>0.3</c:v>
                       </c:pt>
                       <c:pt idx="1">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.366666667</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.37142857099999999</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.58333333300000001</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.44</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.95</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.22</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.24</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.37142857099999999</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.34285714299999998</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.55000000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.58333333300000001</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.54444444400000003</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.67142857099999997</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.428571429</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.34444444400000002</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0.46666666699999998</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
                         <c:v>0.43333333299999999</c:v>
                       </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0.38</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0.35</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0.56000000000000005</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0.55000000000000004</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0.5</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0.66</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>0.56666666700000001</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>0.46</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>0.56000000000000005</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>0.6875</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>0.56000000000000005</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>0.68571428599999995</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>0.76249999999999996</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>0.7</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>0.72222222199999997</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>0.74285714300000005</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>0.8</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>0.88749999999999996</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>0.9</c:v>
-                      </c:pt>
                       <c:pt idx="21">
-                        <c:v>0.74285714300000005</c:v>
+                        <c:v>0.58571428599999997</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>0.95714285700000001</c:v>
+                        <c:v>0.63749999999999996</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>0.95</c:v>
+                        <c:v>0.75</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>1</c:v>
+                        <c:v>0.71250000000000002</c:v>
                       </c:pt>
                       <c:pt idx="25">
                         <c:v>0</c:v>
@@ -8656,79 +8656,79 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="26"/>
                       <c:pt idx="0">
-                        <c:v>0.2</c:v>
+                        <c:v>0.157142857</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.366666667</c:v>
+                        <c:v>0.26250000000000001</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0.26</c:v>
+                        <c:v>0.28000000000000003</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0.27142857100000001</c:v>
+                        <c:v>0.44285714300000001</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>0.4</c:v>
+                        <c:v>0.41666666699999999</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>0.3</c:v>
+                        <c:v>0.65</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>0.46666666699999998</c:v>
+                        <c:v>0.46</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>0.4</c:v>
+                        <c:v>0.38</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>0.3</c:v>
+                        <c:v>0.56666666700000001</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>0.2</c:v>
+                        <c:v>0.6</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>0.2</c:v>
+                        <c:v>0.55000000000000004</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>0.25</c:v>
+                        <c:v>0.6</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>0.26666666700000002</c:v>
+                        <c:v>0.54444444400000003</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>0.36</c:v>
+                        <c:v>0.61</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>0.33333333300000001</c:v>
+                        <c:v>0.61666666699999995</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>0.4</c:v>
+                        <c:v>0.55000000000000004</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>0.36</c:v>
+                        <c:v>0.63333333300000005</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>0.5</c:v>
+                        <c:v>0.61428571399999998</c:v>
                       </c:pt>
                       <c:pt idx="18">
                         <c:v>0.6</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>0.6</c:v>
+                        <c:v>0.5625</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>0.6</c:v>
+                        <c:v>0.64444444400000001</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>0.6</c:v>
+                        <c:v>0.67500000000000004</c:v>
                       </c:pt>
                       <c:pt idx="22">
                         <c:v>0.6</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>0.6</c:v>
+                        <c:v>0.58750000000000002</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>0.6</c:v>
+                        <c:v>0.57499999999999996</c:v>
                       </c:pt>
                       <c:pt idx="25">
                         <c:v>0</c:v>
@@ -9144,79 +9144,79 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="26"/>
                       <c:pt idx="0">
-                        <c:v>0.33333333300000001</c:v>
+                        <c:v>0.29166666699999999</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.38095238100000001</c:v>
+                        <c:v>0.3</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0.35416666699999999</c:v>
+                        <c:v>0.30952381000000001</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0.35416666699999999</c:v>
+                        <c:v>0.3125</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>0.33333333300000001</c:v>
+                        <c:v>0.41666666699999999</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>0.38888888900000002</c:v>
+                        <c:v>0.3125</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>0.47619047599999997</c:v>
+                        <c:v>0.5</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>0.38888888900000002</c:v>
+                        <c:v>0.54761904800000005</c:v>
                       </c:pt>
                       <c:pt idx="8">
+                        <c:v>0.58333333300000001</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.6875</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.64285714299999996</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.55555555599999995</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
                         <c:v>0.5</c:v>
                       </c:pt>
-                      <c:pt idx="9">
-                        <c:v>0.5</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>0.47619047599999997</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>0.70370370400000004</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>0.66666666699999999</c:v>
-                      </c:pt>
                       <c:pt idx="13">
-                        <c:v>0.64285714299999996</c:v>
+                        <c:v>0.77777777800000003</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>0.77083333300000001</c:v>
+                        <c:v>0.60416666699999999</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>0.72916666699999999</c:v>
+                        <c:v>0.57407407399999999</c:v>
                       </c:pt>
                       <c:pt idx="16">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.83333333300000001</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.85416666699999999</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0.88888888899999996</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0.88888888899999996</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0.88888888899999996</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
                         <c:v>0.72222222199999997</c:v>
                       </c:pt>
-                      <c:pt idx="17">
+                      <c:pt idx="23">
                         <c:v>0.75</c:v>
                       </c:pt>
-                      <c:pt idx="18">
-                        <c:v>0.79629629599999996</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>0.71666666700000003</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>0.71666666700000003</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>0.78333333299999997</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>0.83333333300000001</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>0.78333333299999997</c:v>
-                      </c:pt>
                       <c:pt idx="24">
-                        <c:v>0.78333333299999997</c:v>
+                        <c:v>0.61666666699999995</c:v>
                       </c:pt>
                       <c:pt idx="25">
                         <c:v>0</c:v>
@@ -11597,8 +11597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11646,25 +11646,25 @@
         <v>0.222222222</v>
       </c>
       <c r="D2">
-        <v>0.33333333300000001</v>
+        <v>0.29166666699999999</v>
       </c>
       <c r="E2">
-        <v>0.625</v>
+        <v>0.76</v>
       </c>
       <c r="F2">
-        <v>0.47499999999999998</v>
+        <v>0.48</v>
       </c>
       <c r="G2">
         <v>0.3</v>
       </c>
       <c r="H2">
-        <v>0.2</v>
+        <v>0.157142857</v>
       </c>
       <c r="I2">
-        <v>0.28571428599999998</v>
+        <v>0.242857143</v>
       </c>
       <c r="J2">
-        <v>0.31944444399999999</v>
+        <v>0.36111111099999998</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -11678,25 +11678,25 @@
         <v>0.28571428599999998</v>
       </c>
       <c r="D3">
-        <v>0.38095238100000001</v>
+        <v>0.3</v>
       </c>
       <c r="E3">
-        <v>0.74444444399999998</v>
+        <v>0.71</v>
       </c>
       <c r="F3">
-        <v>0.47777777799999999</v>
+        <v>0.52</v>
       </c>
       <c r="G3">
-        <v>0.43333333299999999</v>
+        <v>0.3</v>
       </c>
       <c r="H3">
-        <v>0.366666667</v>
+        <v>0.26250000000000001</v>
       </c>
       <c r="I3">
-        <v>0.326530612</v>
+        <v>0.28571428599999998</v>
       </c>
       <c r="J3">
-        <v>0.383333333</v>
+        <v>0.44444444399999999</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -11710,25 +11710,25 @@
         <v>0.3</v>
       </c>
       <c r="D4">
-        <v>0.35416666699999999</v>
+        <v>0.30952381000000001</v>
       </c>
       <c r="E4">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="F4">
-        <v>0.62222222199999999</v>
+        <v>0.51</v>
       </c>
       <c r="G4">
-        <v>0.38</v>
+        <v>0.366666667</v>
       </c>
       <c r="H4">
-        <v>0.26</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I4">
-        <v>0.28571428599999998</v>
+        <v>0.321428571</v>
       </c>
       <c r="J4">
-        <v>0.36419753100000002</v>
+        <v>0.41666666699999999</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -11742,25 +11742,25 @@
         <v>0.40476190499999998</v>
       </c>
       <c r="D5">
-        <v>0.35416666699999999</v>
+        <v>0.3125</v>
       </c>
       <c r="E5">
-        <v>0.7</v>
+        <v>0.6875</v>
       </c>
       <c r="F5">
-        <v>0.62222222199999999</v>
+        <v>0.44444444399999999</v>
       </c>
       <c r="G5">
-        <v>0.35</v>
+        <v>0.37142857099999999</v>
       </c>
       <c r="H5">
-        <v>0.27142857100000001</v>
+        <v>0.44285714300000001</v>
       </c>
       <c r="I5">
-        <v>0.55714285699999999</v>
+        <v>0.39285714300000002</v>
       </c>
       <c r="J5">
-        <v>0.33333333300000001</v>
+        <v>0.60648148099999999</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -11774,25 +11774,25 @@
         <v>0.58333333300000001</v>
       </c>
       <c r="D6">
-        <v>0.33333333300000001</v>
+        <v>0.41666666699999999</v>
       </c>
       <c r="E6">
-        <v>0.811111111</v>
+        <v>0.72</v>
       </c>
       <c r="F6">
-        <v>0.54</v>
+        <v>0.43</v>
       </c>
       <c r="G6">
-        <v>0.56000000000000005</v>
+        <v>0.58333333300000001</v>
       </c>
       <c r="H6">
-        <v>0.4</v>
+        <v>0.41666666699999999</v>
       </c>
       <c r="I6">
-        <v>0.38095238100000001</v>
+        <v>0.54285714299999999</v>
       </c>
       <c r="J6">
-        <v>0.657407407</v>
+        <v>0.54629629599999996</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -11806,25 +11806,25 @@
         <v>0.83333333300000001</v>
       </c>
       <c r="D7">
-        <v>0.38888888900000002</v>
+        <v>0.3125</v>
       </c>
       <c r="E7">
-        <v>0.77500000000000002</v>
+        <v>0.75</v>
       </c>
       <c r="F7">
-        <v>0.71250000000000002</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="G7">
-        <v>0.55000000000000004</v>
+        <v>0.44</v>
       </c>
       <c r="H7">
-        <v>0.3</v>
+        <v>0.65</v>
       </c>
       <c r="I7">
-        <v>0.47619047599999997</v>
+        <v>0.23809523799999999</v>
       </c>
       <c r="J7">
-        <v>0.58333333300000001</v>
+        <v>0.72916666699999999</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -11838,25 +11838,25 @@
         <v>0.4</v>
       </c>
       <c r="D8">
-        <v>0.47619047599999997</v>
+        <v>0.5</v>
       </c>
       <c r="E8">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="F8">
-        <v>0.6</v>
+        <v>0.45714285700000001</v>
       </c>
       <c r="G8">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="H8">
-        <v>0.46666666699999998</v>
+        <v>0.46</v>
       </c>
       <c r="I8">
-        <v>0.45714285700000001</v>
+        <v>0.33333333300000001</v>
       </c>
       <c r="J8">
-        <v>0.48611111099999998</v>
+        <v>0.43055555600000001</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -11870,25 +11870,25 @@
         <v>0.33333333300000001</v>
       </c>
       <c r="D9">
-        <v>0.38888888900000002</v>
+        <v>0.54761904800000005</v>
       </c>
       <c r="E9">
-        <v>0.74</v>
+        <v>0.89</v>
       </c>
       <c r="F9">
-        <v>0.65</v>
+        <v>0.514285714</v>
       </c>
       <c r="G9">
-        <v>0.66</v>
+        <v>0.2</v>
       </c>
       <c r="H9">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="I9">
-        <v>0.452380952</v>
+        <v>0.28571428599999998</v>
       </c>
       <c r="J9">
-        <v>0.6</v>
+        <v>0.36507936499999999</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -11902,25 +11902,25 @@
         <v>0.39583333300000001</v>
       </c>
       <c r="D10">
-        <v>0.5</v>
+        <v>0.58333333300000001</v>
       </c>
       <c r="E10">
-        <v>0.77500000000000002</v>
+        <v>0.75555555600000002</v>
       </c>
       <c r="F10">
-        <v>0.71250000000000002</v>
+        <v>0.52857142899999998</v>
       </c>
       <c r="G10">
+        <v>0.22</v>
+      </c>
+      <c r="H10">
         <v>0.56666666700000001</v>
       </c>
-      <c r="H10">
-        <v>0.3</v>
-      </c>
       <c r="I10">
-        <v>0.33333333300000001</v>
+        <v>0.28571428599999998</v>
       </c>
       <c r="J10">
-        <v>0.34567901200000001</v>
+        <v>0.46666666699999998</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -11934,25 +11934,25 @@
         <v>0.33333333300000001</v>
       </c>
       <c r="D11">
-        <v>0.5</v>
+        <v>0.6875</v>
       </c>
       <c r="E11">
-        <v>0.82</v>
+        <v>0.74</v>
       </c>
       <c r="F11">
-        <v>0.65</v>
+        <v>0.53333333299999997</v>
       </c>
       <c r="G11">
-        <v>0.46</v>
+        <v>0.24</v>
       </c>
       <c r="H11">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="I11">
-        <v>0.244897959</v>
+        <v>0.37142857099999999</v>
       </c>
       <c r="J11">
-        <v>0.36111111099999998</v>
+        <v>0.43055555600000001</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -11966,25 +11966,25 @@
         <v>0.33333333300000001</v>
       </c>
       <c r="D12">
-        <v>0.47619047599999997</v>
+        <v>0.64285714299999996</v>
       </c>
       <c r="E12">
-        <v>0.82222222199999995</v>
+        <v>0.8</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>0.45555555599999997</v>
       </c>
       <c r="G12">
-        <v>0.56000000000000005</v>
+        <v>0.37142857099999999</v>
       </c>
       <c r="H12">
-        <v>0.2</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I12">
-        <v>0.33035714300000002</v>
+        <v>0.244897959</v>
       </c>
       <c r="J12">
-        <v>0.40277777799999998</v>
+        <v>0.47777777799999999</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -11998,25 +11998,25 @@
         <v>0.33333333300000001</v>
       </c>
       <c r="D13">
-        <v>0.70370370400000004</v>
+        <v>0.55555555599999995</v>
       </c>
       <c r="E13">
-        <v>0.87777777800000001</v>
+        <v>0.83</v>
       </c>
       <c r="F13">
-        <v>0.49</v>
+        <v>0.62222222199999999</v>
       </c>
       <c r="G13">
-        <v>0.6875</v>
+        <v>0.34285714299999998</v>
       </c>
       <c r="H13">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="I13">
-        <v>0.41071428599999998</v>
+        <v>0.39285714300000002</v>
       </c>
       <c r="J13">
-        <v>0.37654321000000002</v>
+        <v>0.44444444399999999</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -12030,25 +12030,25 @@
         <v>0.33333333300000001</v>
       </c>
       <c r="D14">
-        <v>0.66666666699999999</v>
+        <v>0.5</v>
       </c>
       <c r="E14">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
       <c r="F14">
-        <v>0.46</v>
+        <v>0.67</v>
       </c>
       <c r="G14">
-        <v>0.56000000000000005</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H14">
-        <v>0.26666666700000002</v>
+        <v>0.54444444400000003</v>
       </c>
       <c r="I14">
-        <v>0.326530612</v>
+        <v>0.26984127000000002</v>
       </c>
       <c r="J14">
-        <v>0.38888888900000002</v>
+        <v>0.48055555599999999</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -12062,25 +12062,25 @@
         <v>0.43333333299999999</v>
       </c>
       <c r="D15">
-        <v>0.64285714299999996</v>
+        <v>0.77777777800000003</v>
       </c>
       <c r="E15">
-        <v>0.9</v>
+        <v>0.79</v>
       </c>
       <c r="F15">
-        <v>0.53</v>
+        <v>0.68</v>
       </c>
       <c r="G15">
-        <v>0.68571428599999995</v>
+        <v>0.58333333300000001</v>
       </c>
       <c r="H15">
-        <v>0.36</v>
+        <v>0.61</v>
       </c>
       <c r="I15">
-        <v>0.28571428599999998</v>
+        <v>0.375</v>
       </c>
       <c r="J15">
-        <v>0.38095238100000001</v>
+        <v>0.54320987700000001</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -12094,25 +12094,25 @@
         <v>0.44444444399999999</v>
       </c>
       <c r="D16">
-        <v>0.77083333300000001</v>
+        <v>0.60416666699999999</v>
       </c>
       <c r="E16">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="F16">
-        <v>0.49</v>
+        <v>0.6</v>
       </c>
       <c r="G16">
-        <v>0.76249999999999996</v>
+        <v>0.54444444400000003</v>
       </c>
       <c r="H16">
-        <v>0.33333333300000001</v>
+        <v>0.61666666699999995</v>
       </c>
       <c r="I16">
-        <v>0.25</v>
+        <v>0.36734693899999998</v>
       </c>
       <c r="J16">
-        <v>0.33333333300000001</v>
+        <v>0.53055555600000004</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -12126,25 +12126,25 @@
         <v>0.43333333299999999</v>
       </c>
       <c r="D17">
-        <v>0.72916666699999999</v>
+        <v>0.57407407399999999</v>
       </c>
       <c r="E17">
         <v>0.89</v>
       </c>
       <c r="F17">
-        <v>0.62222222199999999</v>
+        <v>0.64</v>
       </c>
       <c r="G17">
-        <v>0.7</v>
+        <v>0.67142857099999997</v>
       </c>
       <c r="H17">
-        <v>0.4</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I17">
-        <v>0.4</v>
+        <v>0.38571428600000002</v>
       </c>
       <c r="J17">
-        <v>0.33333333300000001</v>
+        <v>0.56944444400000005</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -12158,25 +12158,25 @@
         <v>0.45833333300000001</v>
       </c>
       <c r="D18">
-        <v>0.72222222199999997</v>
+        <v>0.7</v>
       </c>
       <c r="E18">
-        <v>0.8</v>
+        <v>0.87</v>
       </c>
       <c r="F18">
-        <v>0.57999999999999996</v>
+        <v>0.64</v>
       </c>
       <c r="G18">
-        <v>0.72222222199999997</v>
+        <v>0.428571429</v>
       </c>
       <c r="H18">
-        <v>0.36</v>
+        <v>0.63333333300000005</v>
       </c>
       <c r="I18">
-        <v>0.30612244900000002</v>
+        <v>0.47619047599999997</v>
       </c>
       <c r="J18">
-        <v>0.45679012299999999</v>
+        <v>0.563888889</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -12190,25 +12190,25 @@
         <v>0.5</v>
       </c>
       <c r="D19">
-        <v>0.75</v>
+        <v>0.83333333300000001</v>
       </c>
       <c r="E19">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="F19">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="G19">
-        <v>0.74285714300000005</v>
+        <v>0.34444444400000002</v>
       </c>
       <c r="H19">
-        <v>0.5</v>
+        <v>0.61428571399999998</v>
       </c>
       <c r="I19">
-        <v>0.43877550999999998</v>
+        <v>0.38775510200000002</v>
       </c>
       <c r="J19">
-        <v>0.47222222200000002</v>
+        <v>0.55555555599999995</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -12222,25 +12222,25 @@
         <v>0.61904761900000005</v>
       </c>
       <c r="D20">
-        <v>0.79629629599999996</v>
+        <v>0.85416666699999999</v>
       </c>
       <c r="E20">
-        <v>0.84</v>
+        <v>0.96</v>
       </c>
       <c r="F20">
-        <v>0.66</v>
+        <v>0.64</v>
       </c>
       <c r="G20">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H20">
         <v>0.6</v>
       </c>
       <c r="I20">
-        <v>0.5</v>
+        <v>0.46938775500000002</v>
       </c>
       <c r="J20">
-        <v>0.41358024700000001</v>
+        <v>0.40833333300000002</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -12254,25 +12254,25 @@
         <v>0.64583333300000001</v>
       </c>
       <c r="D21">
-        <v>0.71666666700000003</v>
+        <v>0.88888888899999996</v>
       </c>
       <c r="E21">
-        <v>0.87</v>
+        <v>0.92</v>
       </c>
       <c r="F21">
-        <v>0.71</v>
+        <v>0.64</v>
       </c>
       <c r="G21">
-        <v>0.88749999999999996</v>
+        <v>0.46666666699999998</v>
       </c>
       <c r="H21">
-        <v>0.6</v>
+        <v>0.5625</v>
       </c>
       <c r="I21">
-        <v>0.54761904800000005</v>
+        <v>0.5</v>
       </c>
       <c r="J21">
-        <v>0.38888888900000002</v>
+        <v>0.34567901200000001</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -12286,25 +12286,25 @@
         <v>0.66666666699999999</v>
       </c>
       <c r="D22">
-        <v>0.71666666700000003</v>
+        <v>0.88888888899999996</v>
       </c>
       <c r="E22">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="F22">
-        <v>0.71111111100000002</v>
+        <v>0.77</v>
       </c>
       <c r="G22">
-        <v>0.9</v>
+        <v>0.43333333299999999</v>
       </c>
       <c r="H22">
-        <v>0.6</v>
+        <v>0.64444444400000001</v>
       </c>
       <c r="I22">
-        <v>0.66071428600000004</v>
+        <v>0.59523809500000002</v>
       </c>
       <c r="J22">
-        <v>0.427777778</v>
+        <v>0.37037037</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -12318,25 +12318,25 @@
         <v>0.66666666699999999</v>
       </c>
       <c r="D23">
-        <v>0.78333333299999997</v>
+        <v>0.88888888899999996</v>
       </c>
       <c r="E23">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="F23">
-        <v>0.65</v>
+        <v>0.77777777800000003</v>
       </c>
       <c r="G23">
-        <v>0.74285714300000005</v>
+        <v>0.58571428599999997</v>
       </c>
       <c r="H23">
-        <v>0.6</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="I23">
-        <v>0.571428571</v>
+        <v>0.428571429</v>
       </c>
       <c r="J23">
-        <v>0.40277777799999998</v>
+        <v>0.301587302</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -12350,25 +12350,25 @@
         <v>0.76190476200000001</v>
       </c>
       <c r="D24">
-        <v>0.83333333300000001</v>
+        <v>0.72222222199999997</v>
       </c>
       <c r="E24">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F24">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="G24">
-        <v>0.95714285700000001</v>
+        <v>0.63749999999999996</v>
       </c>
       <c r="H24">
         <v>0.6</v>
       </c>
       <c r="I24">
-        <v>0.66964285700000004</v>
+        <v>0.55714285699999999</v>
       </c>
       <c r="J24">
-        <v>0.395061728</v>
+        <v>0.34567901200000001</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -12382,25 +12382,25 @@
         <v>0.83333333300000001</v>
       </c>
       <c r="D25">
-        <v>0.78333333299999997</v>
+        <v>0.75</v>
       </c>
       <c r="E25">
-        <v>0.92</v>
+        <v>0.94</v>
       </c>
       <c r="F25">
-        <v>0.61</v>
+        <v>0.65555555600000004</v>
       </c>
       <c r="G25">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="H25">
-        <v>0.6</v>
+        <v>0.58750000000000002</v>
       </c>
       <c r="I25">
-        <v>0.51190476200000001</v>
+        <v>0.54365079400000005</v>
       </c>
       <c r="J25">
-        <v>0.4375</v>
+        <v>0.56666666700000001</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -12414,25 +12414,25 @@
         <v>0.83333333300000001</v>
       </c>
       <c r="D26">
-        <v>0.78333333299999997</v>
+        <v>0.61666666699999995</v>
       </c>
       <c r="E26">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="F26">
-        <v>0.65555555600000004</v>
+        <v>0.83333333300000001</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0.71250000000000002</v>
       </c>
       <c r="H26">
-        <v>0.6</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="I26">
         <v>0.616071429</v>
       </c>
       <c r="J26">
-        <v>0.407407407</v>
+        <v>0.55555555599999995</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -12478,25 +12478,25 @@
         <v>0.27250000000000002</v>
       </c>
       <c r="D28">
-        <v>0.2601</v>
+        <v>0.25840000000000002</v>
       </c>
       <c r="E28">
-        <v>0.82799999999999996</v>
+        <v>0.77029999999999998</v>
       </c>
       <c r="F28">
-        <v>0.5</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="G28">
-        <v>0.3</v>
+        <v>0.33069999999999999</v>
       </c>
       <c r="H28">
-        <v>0.1</v>
+        <v>0.18870000000000001</v>
       </c>
       <c r="I28">
-        <v>0.3</v>
+        <v>0.2697</v>
       </c>
       <c r="J28">
-        <v>0.1</v>
+        <v>0.36780000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -12510,25 +12510,25 @@
         <v>0.27250000000000002</v>
       </c>
       <c r="D29">
-        <v>0.2601</v>
+        <v>0.25840000000000002</v>
       </c>
       <c r="E29">
-        <v>0.82799999999999996</v>
+        <v>0.77029999999999998</v>
       </c>
       <c r="F29">
-        <v>0.5</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="G29">
-        <v>0.3</v>
+        <v>0.33069999999999999</v>
       </c>
       <c r="H29">
-        <v>0.1</v>
+        <v>0.18870000000000001</v>
       </c>
       <c r="I29">
-        <v>0.3</v>
+        <v>0.2697</v>
       </c>
       <c r="J29">
-        <v>0.1</v>
+        <v>0.36780000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -12542,25 +12542,25 @@
         <v>0.27250000000000002</v>
       </c>
       <c r="D30">
-        <v>0.2601</v>
+        <v>0.25840000000000002</v>
       </c>
       <c r="E30">
-        <v>0.82799999999999996</v>
+        <v>0.77029999999999998</v>
       </c>
       <c r="F30">
-        <v>0.5</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="G30">
-        <v>0.3</v>
+        <v>0.33069999999999999</v>
       </c>
       <c r="H30">
-        <v>0.1</v>
+        <v>0.18870000000000001</v>
       </c>
       <c r="I30">
-        <v>0.3</v>
+        <v>0.2697</v>
       </c>
       <c r="J30">
-        <v>0.1</v>
+        <v>0.36780000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -12574,25 +12574,25 @@
         <v>0.27250000000000002</v>
       </c>
       <c r="D31">
-        <v>0.2601</v>
+        <v>0.25840000000000002</v>
       </c>
       <c r="E31">
-        <v>0.82799999999999996</v>
+        <v>0.77029999999999998</v>
       </c>
       <c r="F31">
-        <v>0.5</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="G31">
-        <v>0.3</v>
+        <v>0.33069999999999999</v>
       </c>
       <c r="H31">
-        <v>0.1</v>
+        <v>0.18870000000000001</v>
       </c>
       <c r="I31">
-        <v>0.3</v>
+        <v>0.2697</v>
       </c>
       <c r="J31">
-        <v>0.1</v>
+        <v>0.36780000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -12606,25 +12606,25 @@
         <v>0.27250000000000002</v>
       </c>
       <c r="D32">
-        <v>0.2601</v>
+        <v>0.25840000000000002</v>
       </c>
       <c r="E32">
-        <v>0.82799999999999996</v>
+        <v>0.77029999999999998</v>
       </c>
       <c r="F32">
-        <v>0.5</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="G32">
-        <v>0.3</v>
+        <v>0.33069999999999999</v>
       </c>
       <c r="H32">
-        <v>0.1</v>
+        <v>0.18870000000000001</v>
       </c>
       <c r="I32">
-        <v>0.3</v>
+        <v>0.2697</v>
       </c>
       <c r="J32">
-        <v>0.1</v>
+        <v>0.36780000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -12638,25 +12638,25 @@
         <v>0.27250000000000002</v>
       </c>
       <c r="D33">
-        <v>0.2601</v>
+        <v>0.25840000000000002</v>
       </c>
       <c r="E33">
-        <v>0.82799999999999996</v>
+        <v>0.77029999999999998</v>
       </c>
       <c r="F33">
-        <v>0.5</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="G33">
-        <v>0.3</v>
+        <v>0.33069999999999999</v>
       </c>
       <c r="H33">
-        <v>0.1</v>
+        <v>0.18870000000000001</v>
       </c>
       <c r="I33">
-        <v>0.3</v>
+        <v>0.2697</v>
       </c>
       <c r="J33">
-        <v>0.1</v>
+        <v>0.36780000000000002</v>
       </c>
       <c r="O33" t="s">
         <v>1</v>
@@ -12673,25 +12673,25 @@
         <v>0.27250000000000002</v>
       </c>
       <c r="D34">
-        <v>0.2601</v>
+        <v>0.25840000000000002</v>
       </c>
       <c r="E34">
-        <v>0.82799999999999996</v>
+        <v>0.77029999999999998</v>
       </c>
       <c r="F34">
-        <v>0.5</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="G34">
-        <v>0.3</v>
+        <v>0.33069999999999999</v>
       </c>
       <c r="H34">
-        <v>0.1</v>
+        <v>0.18870000000000001</v>
       </c>
       <c r="I34">
-        <v>0.3</v>
+        <v>0.2697</v>
       </c>
       <c r="J34">
-        <v>0.1</v>
+        <v>0.36780000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -12705,25 +12705,25 @@
         <v>0.27250000000000002</v>
       </c>
       <c r="D35">
-        <v>0.2601</v>
+        <v>0.25840000000000002</v>
       </c>
       <c r="E35">
-        <v>0.82799999999999996</v>
+        <v>0.77029999999999998</v>
       </c>
       <c r="F35">
-        <v>0.5</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="G35">
-        <v>0.3</v>
+        <v>0.33069999999999999</v>
       </c>
       <c r="H35">
-        <v>0.1</v>
+        <v>0.18870000000000001</v>
       </c>
       <c r="I35">
-        <v>0.3</v>
+        <v>0.2697</v>
       </c>
       <c r="J35">
-        <v>0.1</v>
+        <v>0.36780000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -12737,25 +12737,25 @@
         <v>0.27250000000000002</v>
       </c>
       <c r="D36">
-        <v>0.2601</v>
+        <v>0.25840000000000002</v>
       </c>
       <c r="E36">
-        <v>0.82799999999999996</v>
+        <v>0.77029999999999998</v>
       </c>
       <c r="F36">
-        <v>0.5</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="G36">
-        <v>0.3</v>
+        <v>0.33069999999999999</v>
       </c>
       <c r="H36">
-        <v>0.1</v>
+        <v>0.18870000000000001</v>
       </c>
       <c r="I36">
-        <v>0.3</v>
+        <v>0.2697</v>
       </c>
       <c r="J36">
-        <v>0.1</v>
+        <v>0.36780000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -12769,25 +12769,25 @@
         <v>0.27250000000000002</v>
       </c>
       <c r="D37">
-        <v>0.2601</v>
+        <v>0.25840000000000002</v>
       </c>
       <c r="E37">
-        <v>0.82799999999999996</v>
+        <v>0.77029999999999998</v>
       </c>
       <c r="F37">
-        <v>0.5</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="G37">
-        <v>0.3</v>
+        <v>0.33069999999999999</v>
       </c>
       <c r="H37">
-        <v>0.1</v>
+        <v>0.18870000000000001</v>
       </c>
       <c r="I37">
-        <v>0.3</v>
+        <v>0.2697</v>
       </c>
       <c r="J37">
-        <v>0.1</v>
+        <v>0.36780000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -12801,25 +12801,25 @@
         <v>0.27250000000000002</v>
       </c>
       <c r="D38">
-        <v>0.2601</v>
+        <v>0.25840000000000002</v>
       </c>
       <c r="E38">
-        <v>0.82799999999999996</v>
+        <v>0.77029999999999998</v>
       </c>
       <c r="F38">
-        <v>0.5</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="G38">
-        <v>0.3</v>
+        <v>0.33069999999999999</v>
       </c>
       <c r="H38">
-        <v>0.1</v>
+        <v>0.18870000000000001</v>
       </c>
       <c r="I38">
-        <v>0.3</v>
+        <v>0.2697</v>
       </c>
       <c r="J38">
-        <v>0.1</v>
+        <v>0.36780000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -12833,25 +12833,25 @@
         <v>0.27250000000000002</v>
       </c>
       <c r="D39">
-        <v>0.2601</v>
+        <v>0.25840000000000002</v>
       </c>
       <c r="E39">
-        <v>0.82799999999999996</v>
+        <v>0.77029999999999998</v>
       </c>
       <c r="F39">
-        <v>0.5</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="G39">
-        <v>0.3</v>
+        <v>0.33069999999999999</v>
       </c>
       <c r="H39">
-        <v>0.1</v>
+        <v>0.18870000000000001</v>
       </c>
       <c r="I39">
-        <v>0.3</v>
+        <v>0.2697</v>
       </c>
       <c r="J39">
-        <v>0.1</v>
+        <v>0.36780000000000002</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -12865,25 +12865,25 @@
         <v>0.27250000000000002</v>
       </c>
       <c r="D40">
-        <v>0.2601</v>
+        <v>0.25840000000000002</v>
       </c>
       <c r="E40">
-        <v>0.82799999999999996</v>
+        <v>0.77029999999999998</v>
       </c>
       <c r="F40">
-        <v>0.5</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="G40">
-        <v>0.3</v>
+        <v>0.33069999999999999</v>
       </c>
       <c r="H40">
-        <v>0.1</v>
+        <v>0.18870000000000001</v>
       </c>
       <c r="I40">
-        <v>0.3</v>
+        <v>0.2697</v>
       </c>
       <c r="J40">
-        <v>0.1</v>
+        <v>0.36780000000000002</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -12897,25 +12897,25 @@
         <v>0.27250000000000002</v>
       </c>
       <c r="D41">
-        <v>0.2601</v>
+        <v>0.25840000000000002</v>
       </c>
       <c r="E41">
-        <v>0.82799999999999996</v>
+        <v>0.77029999999999998</v>
       </c>
       <c r="F41">
-        <v>0.5</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="G41">
-        <v>0.3</v>
+        <v>0.33069999999999999</v>
       </c>
       <c r="H41">
-        <v>0.1</v>
+        <v>0.18870000000000001</v>
       </c>
       <c r="I41">
-        <v>0.3</v>
+        <v>0.2697</v>
       </c>
       <c r="J41">
-        <v>0.1</v>
+        <v>0.36780000000000002</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -12929,25 +12929,25 @@
         <v>0.27250000000000002</v>
       </c>
       <c r="D42">
-        <v>0.2601</v>
+        <v>0.25840000000000002</v>
       </c>
       <c r="E42">
-        <v>0.82799999999999996</v>
+        <v>0.77029999999999998</v>
       </c>
       <c r="F42">
-        <v>0.5</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="G42">
-        <v>0.3</v>
+        <v>0.33069999999999999</v>
       </c>
       <c r="H42">
-        <v>0.1</v>
+        <v>0.18870000000000001</v>
       </c>
       <c r="I42">
-        <v>0.3</v>
+        <v>0.2697</v>
       </c>
       <c r="J42">
-        <v>0.1</v>
+        <v>0.36780000000000002</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -12961,25 +12961,25 @@
         <v>0.27250000000000002</v>
       </c>
       <c r="D43">
-        <v>0.2601</v>
+        <v>0.25840000000000002</v>
       </c>
       <c r="E43">
-        <v>0.82799999999999996</v>
+        <v>0.77029999999999998</v>
       </c>
       <c r="F43">
-        <v>0.5</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="G43">
-        <v>0.3</v>
+        <v>0.33069999999999999</v>
       </c>
       <c r="H43">
-        <v>0.1</v>
+        <v>0.18870000000000001</v>
       </c>
       <c r="I43">
-        <v>0.3</v>
+        <v>0.2697</v>
       </c>
       <c r="J43">
-        <v>0.1</v>
+        <v>0.36780000000000002</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -12993,25 +12993,25 @@
         <v>0.27250000000000002</v>
       </c>
       <c r="D44">
-        <v>0.2601</v>
+        <v>0.25840000000000002</v>
       </c>
       <c r="E44">
-        <v>0.82799999999999996</v>
+        <v>0.77029999999999998</v>
       </c>
       <c r="F44">
-        <v>0.5</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="G44">
-        <v>0.3</v>
+        <v>0.33069999999999999</v>
       </c>
       <c r="H44">
-        <v>0.1</v>
+        <v>0.18870000000000001</v>
       </c>
       <c r="I44">
-        <v>0.3</v>
+        <v>0.2697</v>
       </c>
       <c r="J44">
-        <v>0.1</v>
+        <v>0.36780000000000002</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -13025,25 +13025,25 @@
         <v>0.27250000000000002</v>
       </c>
       <c r="D45">
-        <v>0.2601</v>
+        <v>0.25840000000000002</v>
       </c>
       <c r="E45">
-        <v>0.82799999999999996</v>
+        <v>0.77029999999999998</v>
       </c>
       <c r="F45">
-        <v>0.5</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="G45">
-        <v>0.3</v>
+        <v>0.33069999999999999</v>
       </c>
       <c r="H45">
-        <v>0.1</v>
+        <v>0.18870000000000001</v>
       </c>
       <c r="I45">
-        <v>0.3</v>
+        <v>0.2697</v>
       </c>
       <c r="J45">
-        <v>0.1</v>
+        <v>0.36780000000000002</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -13057,25 +13057,25 @@
         <v>0.27250000000000002</v>
       </c>
       <c r="D46">
-        <v>0.2601</v>
+        <v>0.25840000000000002</v>
       </c>
       <c r="E46">
-        <v>0.82799999999999996</v>
+        <v>0.77029999999999998</v>
       </c>
       <c r="F46">
-        <v>0.5</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="G46">
-        <v>0.3</v>
+        <v>0.33069999999999999</v>
       </c>
       <c r="H46">
-        <v>0.1</v>
+        <v>0.18870000000000001</v>
       </c>
       <c r="I46">
-        <v>0.3</v>
+        <v>0.2697</v>
       </c>
       <c r="J46">
-        <v>0.1</v>
+        <v>0.36780000000000002</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -13089,25 +13089,25 @@
         <v>0.27250000000000002</v>
       </c>
       <c r="D47">
-        <v>0.2601</v>
+        <v>0.25840000000000002</v>
       </c>
       <c r="E47">
-        <v>0.82799999999999996</v>
+        <v>0.77029999999999998</v>
       </c>
       <c r="F47">
-        <v>0.5</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="G47">
-        <v>0.3</v>
+        <v>0.33069999999999999</v>
       </c>
       <c r="H47">
-        <v>0.1</v>
+        <v>0.18870000000000001</v>
       </c>
       <c r="I47">
-        <v>0.3</v>
+        <v>0.2697</v>
       </c>
       <c r="J47">
-        <v>0.1</v>
+        <v>0.36780000000000002</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -13121,25 +13121,25 @@
         <v>0.27250000000000002</v>
       </c>
       <c r="D48">
-        <v>0.2601</v>
+        <v>0.25840000000000002</v>
       </c>
       <c r="E48">
-        <v>0.82799999999999996</v>
+        <v>0.77029999999999998</v>
       </c>
       <c r="F48">
-        <v>0.5</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="G48">
-        <v>0.3</v>
+        <v>0.33069999999999999</v>
       </c>
       <c r="H48">
-        <v>0.1</v>
+        <v>0.18870000000000001</v>
       </c>
       <c r="I48">
-        <v>0.3</v>
+        <v>0.2697</v>
       </c>
       <c r="J48">
-        <v>0.1</v>
+        <v>0.36780000000000002</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -13153,25 +13153,25 @@
         <v>0.27250000000000002</v>
       </c>
       <c r="D49">
-        <v>0.2601</v>
+        <v>0.25840000000000002</v>
       </c>
       <c r="E49">
-        <v>0.82799999999999996</v>
+        <v>0.77029999999999998</v>
       </c>
       <c r="F49">
-        <v>0.5</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="G49">
-        <v>0.3</v>
+        <v>0.33069999999999999</v>
       </c>
       <c r="H49">
-        <v>0.1</v>
+        <v>0.18870000000000001</v>
       </c>
       <c r="I49">
-        <v>0.3</v>
+        <v>0.2697</v>
       </c>
       <c r="J49">
-        <v>0.1</v>
+        <v>0.36780000000000002</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -13185,25 +13185,25 @@
         <v>0.27250000000000002</v>
       </c>
       <c r="D50">
-        <v>0.2601</v>
+        <v>0.25840000000000002</v>
       </c>
       <c r="E50">
-        <v>0.82799999999999996</v>
+        <v>0.77029999999999998</v>
       </c>
       <c r="F50">
-        <v>0.5</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="G50">
-        <v>0.3</v>
+        <v>0.33069999999999999</v>
       </c>
       <c r="H50">
-        <v>0.1</v>
+        <v>0.18870000000000001</v>
       </c>
       <c r="I50">
-        <v>0.3</v>
+        <v>0.2697</v>
       </c>
       <c r="J50">
-        <v>0.1</v>
+        <v>0.36780000000000002</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -13217,25 +13217,25 @@
         <v>0.27250000000000002</v>
       </c>
       <c r="D51">
-        <v>0.2601</v>
+        <v>0.25840000000000002</v>
       </c>
       <c r="E51">
-        <v>0.82799999999999996</v>
+        <v>0.77029999999999998</v>
       </c>
       <c r="F51">
-        <v>0.5</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="G51">
-        <v>0.3</v>
+        <v>0.33069999999999999</v>
       </c>
       <c r="H51">
-        <v>0.1</v>
+        <v>0.18870000000000001</v>
       </c>
       <c r="I51">
-        <v>0.3</v>
+        <v>0.2697</v>
       </c>
       <c r="J51">
-        <v>0.1</v>
+        <v>0.36780000000000002</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -13249,25 +13249,25 @@
         <v>0.27250000000000002</v>
       </c>
       <c r="D52">
-        <v>0.2601</v>
+        <v>0.25840000000000002</v>
       </c>
       <c r="E52">
-        <v>0.82799999999999996</v>
+        <v>0.77029999999999998</v>
       </c>
       <c r="F52">
-        <v>0.5</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="G52">
-        <v>0.3</v>
+        <v>0.33069999999999999</v>
       </c>
       <c r="H52">
-        <v>0.1</v>
+        <v>0.18870000000000001</v>
       </c>
       <c r="I52">
-        <v>0.3</v>
+        <v>0.2697</v>
       </c>
       <c r="J52">
-        <v>0.1</v>
+        <v>0.36780000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/PythonEnvironment/resources/all_results_new.xlsx
+++ b/PythonEnvironment/resources/all_results_new.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\_Thesis\Scavenger\PythonEnvironment\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAE37DE-EECD-4720-A376-0F8BF31EFA9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E77D74-930F-42E2-80B6-894DE23B584D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Gen</t>
   </si>
@@ -92,6 +92,12 @@
   <si>
     <t>FFXEW base</t>
   </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>W base</t>
+  </si>
 </sst>
 </file>
 
@@ -136,6 +142,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
+      <color rgb="FF53009D"/>
+      <color rgb="FFFF78BE"/>
       <color rgb="FF03515B"/>
       <color rgb="FFFA8199"/>
     </mruColors>
@@ -172,7 +180,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -185,14 +193,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="2000"/>
               <a:t>Average</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Fitness Over Many Generations of Simple Sequences</a:t>
+              <a:rPr lang="en-US" sz="2000" baseline="0"/>
+              <a:t> Fitness Over Many Generations of Single Event Sequences</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" sz="2000"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -209,7 +217,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -242,15 +250,15 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="12"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Sheet1!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FW</c:v>
+                  <c:v>W</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -258,7 +266,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="FA8199"/>
+                <a:srgbClr val="53009D"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -269,11 +277,224 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FA8199"/>
+                <a:srgbClr val="53009D"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:srgbClr val="FA8199"/>
+                  <a:srgbClr val="53009D"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.928571429</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91666666699999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.928571429</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8A00-46A2-B594-4E72E8B5FC8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF78BE"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF78BE"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF78BE"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -372,79 +593,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0.60416666699999999</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.61904761900000005</c:v>
+                  <c:v>0.68333333299999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.85185185200000002</c:v>
+                  <c:v>0.68333333299999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.83333333300000001</c:v>
+                  <c:v>0.64583333300000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.58333333300000001</c:v>
+                  <c:v>0.87037036999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.66666666699999999</c:v>
+                  <c:v>0.81666666700000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.71666666700000003</c:v>
+                  <c:v>0.93333333299999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.81481481499999997</c:v>
+                  <c:v>0.91666666699999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.91666666699999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.65</c:v>
+                  <c:v>0.77777777800000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.63333333300000005</c:v>
+                  <c:v>0.75925925900000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.75</c:v>
+                  <c:v>0.79629629599999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.83333333300000001</c:v>
+                  <c:v>0.91666666699999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.91666666699999999</c:v>
+                  <c:v>0.88333333300000005</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.907407407</c:v>
+                  <c:v>0.94444444400000005</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.81666666700000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.70370370400000004</c:v>
+                  <c:v>0.93333333299999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.88333333300000005</c:v>
+                  <c:v>0.93333333299999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.88333333300000005</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>0.93333333299999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.89583333300000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.93333333299999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>0.91666666699999999</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.96296296299999995</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.88333333300000005</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.73333333300000003</c:v>
-                </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.71666666700000003</c:v>
+                  <c:v>0.81666666700000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.61666666699999995</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
@@ -461,7 +682,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
-          <c:order val="7"/>
+          <c:order val="8"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$C$1</c:f>
@@ -590,79 +811,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0.222222222</c:v>
+                  <c:v>0.29166666666666602</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28571428599999998</c:v>
+                  <c:v>0.29999999999999899</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3</c:v>
+                  <c:v>0.33333333333333298</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.40476190499999998</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.58333333300000001</c:v>
+                  <c:v>0.29166666666666602</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.83333333300000001</c:v>
+                  <c:v>0.33333333333333298</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.4</c:v>
+                  <c:v>0.33333333333333298</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.33333333300000001</c:v>
+                  <c:v>0.30555555555555503</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.39583333300000001</c:v>
+                  <c:v>0.58333333333333304</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.33333333300000001</c:v>
+                  <c:v>0.54166666666666596</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.33333333300000001</c:v>
+                  <c:v>0.73333333333333295</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.33333333300000001</c:v>
+                  <c:v>0.83333333333333304</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.33333333300000001</c:v>
+                  <c:v>0.76190476190476097</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.43333333299999999</c:v>
+                  <c:v>0.83333333333333304</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.44444444399999999</c:v>
+                  <c:v>0.83333333333333304</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.43333333299999999</c:v>
+                  <c:v>0.83333333333333304</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.45833333300000001</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.5</c:v>
+                  <c:v>0.76190476190476097</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.61904761900000005</c:v>
+                  <c:v>0.66666666666666596</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.64583333300000001</c:v>
+                  <c:v>0.41666666666666602</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.66666666699999999</c:v>
+                  <c:v>0.54761904761904701</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.66666666699999999</c:v>
+                  <c:v>0.66666666666666596</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.76190476200000001</c:v>
+                  <c:v>0.54761904761904701</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.83333333300000001</c:v>
+                  <c:v>0.54761904761904701</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.83333333300000001</c:v>
+                  <c:v>0.61111111111111105</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
@@ -679,7 +900,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
-          <c:order val="8"/>
+          <c:order val="9"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$D$1</c:f>
@@ -694,9 +915,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
+                <a:srgbClr val="03515B"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -707,15 +926,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
+                <a:srgbClr val="03515B"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="03515B"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -902,8 +1117,218 @@
           </c:extLst>
         </c:ser>
         <c:ser>
+          <c:idx val="13"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>W base</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="53009D"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$28:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$28:$K$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.61819999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61819999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61819999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61819999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61819999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.61819999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.61819999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.61819999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.61819999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.61819999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.61819999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.61819999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.61819999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.61819999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.61819999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.61819999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.61819999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.61819999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.61819999999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.61819999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.61819999999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.61819999999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.61819999999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.61819999999999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.61819999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F5EC-40D3-AEBC-C2C6B5BC7AF5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="9"/>
-          <c:order val="9"/>
+          <c:order val="11"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$B$27</c:f>
@@ -918,7 +1343,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="FA8199"/>
+                <a:srgbClr val="FF78BE"/>
               </a:solidFill>
               <a:prstDash val="dash"/>
               <a:round/>
@@ -1105,7 +1530,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
-          <c:order val="10"/>
+          <c:order val="12"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$C$27</c:f>
@@ -1310,7 +1735,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="11"/>
-          <c:order val="11"/>
+          <c:order val="13"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$D$27</c:f>
@@ -1325,9 +1750,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
+                <a:srgbClr val="03515B"/>
               </a:solidFill>
               <a:prstDash val="dash"/>
               <a:round/>
@@ -1527,7 +1950,7 @@
             <c15:filteredScatterSeries>
               <c15:ser>
                 <c:idx val="1"/>
-                <c:order val="1"/>
+                <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst>
@@ -1765,7 +2188,7 @@
             <c15:filteredScatterSeries>
               <c15:ser>
                 <c:idx val="2"/>
-                <c:order val="2"/>
+                <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
@@ -2004,7 +2427,7 @@
             <c15:filteredScatterSeries>
               <c15:ser>
                 <c:idx val="3"/>
-                <c:order val="3"/>
+                <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
@@ -2155,76 +2578,76 @@
                         <c:v>0.3</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.3</c:v>
+                        <c:v>0.4</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0.366666667</c:v>
+                        <c:v>0.45</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0.37142857099999999</c:v>
+                        <c:v>0.6</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>0.58333333300000001</c:v>
+                        <c:v>0.68571428599999995</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>0.44</c:v>
+                        <c:v>0.7</c:v>
                       </c:pt>
                       <c:pt idx="6">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
                         <c:v>0.95</c:v>
                       </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0.2</c:v>
-                      </c:pt>
                       <c:pt idx="8">
-                        <c:v>0.22</c:v>
+                        <c:v>0.64</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>0.24</c:v>
+                        <c:v>0.4</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>0.37142857099999999</c:v>
+                        <c:v>0.45714285700000001</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>0.34285714299999998</c:v>
+                        <c:v>0.6</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>0.55000000000000004</c:v>
+                        <c:v>0.928571429</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>0.58333333300000001</c:v>
+                        <c:v>0.94</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>0.54444444400000003</c:v>
+                        <c:v>0.71111111100000002</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>0.67142857099999997</c:v>
+                        <c:v>0.75</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>0.428571429</c:v>
+                        <c:v>0.85714285700000004</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>0.34444444400000002</c:v>
+                        <c:v>0.97142857100000002</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>0.4</c:v>
+                        <c:v>0.93333333299999999</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>0.46666666699999998</c:v>
+                        <c:v>0.85714285700000004</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>0.43333333299999999</c:v>
+                        <c:v>0.78749999999999998</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>0.58571428599999997</c:v>
+                        <c:v>0.75</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>0.63749999999999996</c:v>
+                        <c:v>0.73750000000000004</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>0.75</c:v>
+                        <c:v>0.8</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>0.71250000000000002</c:v>
+                        <c:v>0.74444444399999998</c:v>
                       </c:pt>
                       <c:pt idx="25">
                         <c:v>0</c:v>
@@ -2243,7 +2666,7 @@
             <c15:filteredScatterSeries>
               <c15:ser>
                 <c:idx val="4"/>
-                <c:order val="4"/>
+                <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
@@ -2481,7 +2904,7 @@
             <c15:filteredScatterSeries>
               <c15:ser>
                 <c:idx val="5"/>
-                <c:order val="5"/>
+                <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
@@ -2719,7 +3142,7 @@
             <c15:filteredScatterSeries>
               <c15:ser>
                 <c:idx val="6"/>
-                <c:order val="6"/>
+                <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
@@ -2992,7 +3415,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3005,7 +3428,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1600"/>
                   <a:t>Generation</a:t>
                 </a:r>
               </a:p>
@@ -3024,7 +3447,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3062,7 +3485,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3085,7 +3508,8 @@
         <c:axId val="1517873616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
+          <c:max val="1.1000000000000001"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3110,7 +3534,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3123,7 +3547,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1600"/>
                   <a:t>Average Fitness of 10 levels</a:t>
                 </a:r>
               </a:p>
@@ -3142,7 +3566,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3180,7 +3604,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3222,7 +3646,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3296,7 +3720,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3309,14 +3733,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="2000"/>
               <a:t>Average</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Fitness Over Many Generations of Medium Complexity Sequences</a:t>
+              <a:rPr lang="en-US" sz="2000" baseline="0"/>
+              <a:t> Fitness Over Many Generations of Double Event Sequences</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" sz="2000"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3333,7 +3757,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3382,7 +3806,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="FA8199"/>
+                <a:srgbClr val="FF78BE"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3393,11 +3817,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FA8199"/>
+                <a:srgbClr val="FF78BE"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:srgbClr val="FA8199"/>
+                  <a:srgbClr val="FF78BE"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -3601,9 +4025,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
+                <a:srgbClr val="53009D"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
               <a:round/>
@@ -3615,15 +4037,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
+                <a:srgbClr val="53009D"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="53009D"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -3946,76 +4364,76 @@
                   <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.366666667</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.37142857099999999</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.58333333300000001</c:v>
+                  <c:v>0.68571428599999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.44</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.95</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.2</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.22</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.24</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.37142857099999999</c:v>
+                  <c:v>0.45714285700000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.34285714299999998</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0.928571429</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.58333333300000001</c:v>
+                  <c:v>0.94</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.54444444400000003</c:v>
+                  <c:v>0.71111111100000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.67142857099999997</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.428571429</c:v>
+                  <c:v>0.85714285700000004</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.34444444400000002</c:v>
+                  <c:v>0.97142857100000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.4</c:v>
+                  <c:v>0.93333333299999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.46666666699999998</c:v>
+                  <c:v>0.85714285700000004</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.43333333299999999</c:v>
+                  <c:v>0.78749999999999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.58571428599999997</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.63749999999999996</c:v>
+                  <c:v>0.73750000000000004</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.75</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.71250000000000002</c:v>
+                  <c:v>0.74444444399999998</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
@@ -4470,9 +4888,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
+                <a:srgbClr val="53009D"/>
               </a:solidFill>
               <a:prstDash val="dash"/>
               <a:round/>
@@ -5229,79 +5645,79 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="26"/>
                       <c:pt idx="0">
-                        <c:v>0.60416666699999999</c:v>
+                        <c:v>0.7</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.61904761900000005</c:v>
+                        <c:v>0.68333333299999999</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0.85185185200000002</c:v>
+                        <c:v>0.68333333299999999</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0.83333333300000001</c:v>
+                        <c:v>0.64583333300000001</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>0.58333333300000001</c:v>
+                        <c:v>0.87037036999999995</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>0.66666666699999999</c:v>
+                        <c:v>0.81666666700000001</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>0.71666666700000003</c:v>
+                        <c:v>0.93333333299999999</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>0.81481481499999997</c:v>
+                        <c:v>0.91666666699999999</c:v>
                       </c:pt>
                       <c:pt idx="8">
                         <c:v>0.91666666699999999</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>0.65</c:v>
+                        <c:v>0.77777777800000003</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>0.63333333300000005</c:v>
+                        <c:v>0.75925925900000002</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>0.75</c:v>
+                        <c:v>0.79629629599999996</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>0.83333333300000001</c:v>
+                        <c:v>0.91666666699999999</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>0.91666666699999999</c:v>
+                        <c:v>0.88333333300000005</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>0.907407407</c:v>
+                        <c:v>0.94444444400000005</c:v>
                       </c:pt>
                       <c:pt idx="15">
                         <c:v>0.81666666700000001</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>0.70370370400000004</c:v>
+                        <c:v>0.93333333299999999</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>0.88333333300000005</c:v>
+                        <c:v>0.93333333299999999</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>0.88333333300000005</c:v>
+                        <c:v>0.9</c:v>
                       </c:pt>
                       <c:pt idx="19">
+                        <c:v>0.93333333299999999</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0.89583333300000001</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0.93333333299999999</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
                         <c:v>0.91666666699999999</c:v>
                       </c:pt>
-                      <c:pt idx="20">
-                        <c:v>0.96296296299999995</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>0.88333333300000005</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>0.73333333300000003</c:v>
-                      </c:pt>
                       <c:pt idx="23">
-                        <c:v>0.71666666700000003</c:v>
+                        <c:v>0.81666666700000001</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>0.61666666699999995</c:v>
+                        <c:v>0.8</c:v>
                       </c:pt>
                       <c:pt idx="25">
                         <c:v>0</c:v>
@@ -5955,79 +6371,79 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="26"/>
                       <c:pt idx="0">
-                        <c:v>0.222222222</c:v>
+                        <c:v>0.29166666666666602</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.28571428599999998</c:v>
+                        <c:v>0.29999999999999899</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0.3</c:v>
+                        <c:v>0.33333333333333298</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0.40476190499999998</c:v>
+                        <c:v>0.6</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>0.58333333300000001</c:v>
+                        <c:v>0.29166666666666602</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>0.83333333300000001</c:v>
+                        <c:v>0.33333333333333298</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>0.4</c:v>
+                        <c:v>0.33333333333333298</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>0.33333333300000001</c:v>
+                        <c:v>0.30555555555555503</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>0.39583333300000001</c:v>
+                        <c:v>0.58333333333333304</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>0.33333333300000001</c:v>
+                        <c:v>0.54166666666666596</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>0.33333333300000001</c:v>
+                        <c:v>0.73333333333333295</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>0.33333333300000001</c:v>
+                        <c:v>0.83333333333333304</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>0.33333333300000001</c:v>
+                        <c:v>0.76190476190476097</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>0.43333333299999999</c:v>
+                        <c:v>0.83333333333333304</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>0.44444444399999999</c:v>
+                        <c:v>0.83333333333333304</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>0.43333333299999999</c:v>
+                        <c:v>0.83333333333333304</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>0.45833333300000001</c:v>
+                        <c:v>0.75</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>0.5</c:v>
+                        <c:v>0.76190476190476097</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>0.61904761900000005</c:v>
+                        <c:v>0.66666666666666596</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>0.64583333300000001</c:v>
+                        <c:v>0.41666666666666602</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>0.66666666699999999</c:v>
+                        <c:v>0.54761904761904701</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>0.66666666699999999</c:v>
+                        <c:v>0.66666666666666596</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>0.76190476200000001</c:v>
+                        <c:v>0.54761904761904701</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>0.83333333300000001</c:v>
+                        <c:v>0.54761904761904701</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>0.83333333300000001</c:v>
+                        <c:v>0.61111111111111105</c:v>
                       </c:pt>
                       <c:pt idx="25">
                         <c:v>0</c:v>
@@ -6319,7 +6735,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -6332,7 +6748,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1600"/>
                   <a:t>Generation</a:t>
                 </a:r>
               </a:p>
@@ -6351,7 +6767,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -6389,7 +6805,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -6412,7 +6828,8 @@
         <c:axId val="1517873616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
+          <c:max val="1.1000000000000001"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6437,7 +6854,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -6450,7 +6867,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1600"/>
                   <a:t>Average Fitness of 10 levels</a:t>
                 </a:r>
               </a:p>
@@ -6469,7 +6886,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -6507,7 +6924,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -6549,7 +6966,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -6623,7 +7040,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -6636,14 +7053,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="2000"/>
               <a:t>Average</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Fitness Over Many Generations of Complex Sequences</a:t>
+              <a:rPr lang="en-US" sz="2000" baseline="0"/>
+              <a:t> Fitness Over Many Generations of Longer Sequences</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" sz="2000"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -6660,7 +7077,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -6710,7 +7127,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="FA8199"/>
+                <a:srgbClr val="FF78BE"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -6721,11 +7138,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FA8199"/>
+                <a:srgbClr val="FF78BE"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:srgbClr val="FA8199"/>
+                  <a:srgbClr val="FF78BE"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -6929,7 +7346,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="03515B"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -6940,11 +7357,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="03515B"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:srgbClr val="03515B"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -7147,7 +7564,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="FA8199"/>
+                <a:srgbClr val="FF78BE"/>
               </a:solidFill>
               <a:prstDash val="dash"/>
               <a:round/>
@@ -7349,7 +7766,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="03515B"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:prstDash val="dash"/>
               <a:round/>
@@ -7702,79 +8119,79 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="26"/>
                       <c:pt idx="0">
-                        <c:v>0.60416666699999999</c:v>
+                        <c:v>0.7</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.61904761900000005</c:v>
+                        <c:v>0.68333333299999999</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0.85185185200000002</c:v>
+                        <c:v>0.68333333299999999</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0.83333333300000001</c:v>
+                        <c:v>0.64583333300000001</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>0.58333333300000001</c:v>
+                        <c:v>0.87037036999999995</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>0.66666666699999999</c:v>
+                        <c:v>0.81666666700000001</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>0.71666666700000003</c:v>
+                        <c:v>0.93333333299999999</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>0.81481481499999997</c:v>
+                        <c:v>0.91666666699999999</c:v>
                       </c:pt>
                       <c:pt idx="8">
                         <c:v>0.91666666699999999</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>0.65</c:v>
+                        <c:v>0.77777777800000003</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>0.63333333300000005</c:v>
+                        <c:v>0.75925925900000002</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>0.75</c:v>
+                        <c:v>0.79629629599999996</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>0.83333333300000001</c:v>
+                        <c:v>0.91666666699999999</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>0.91666666699999999</c:v>
+                        <c:v>0.88333333300000005</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>0.907407407</c:v>
+                        <c:v>0.94444444400000005</c:v>
                       </c:pt>
                       <c:pt idx="15">
                         <c:v>0.81666666700000001</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>0.70370370400000004</c:v>
+                        <c:v>0.93333333299999999</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>0.88333333300000005</c:v>
+                        <c:v>0.93333333299999999</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>0.88333333300000005</c:v>
+                        <c:v>0.9</c:v>
                       </c:pt>
                       <c:pt idx="19">
+                        <c:v>0.93333333299999999</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0.89583333300000001</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0.93333333299999999</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
                         <c:v>0.91666666699999999</c:v>
                       </c:pt>
-                      <c:pt idx="20">
-                        <c:v>0.96296296299999995</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>0.88333333300000005</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>0.73333333300000003</c:v>
-                      </c:pt>
                       <c:pt idx="23">
-                        <c:v>0.71666666700000003</c:v>
+                        <c:v>0.81666666700000001</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>0.61666666699999995</c:v>
+                        <c:v>0.8</c:v>
                       </c:pt>
                       <c:pt idx="25">
                         <c:v>0</c:v>
@@ -8421,76 +8838,76 @@
                         <c:v>0.3</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.3</c:v>
+                        <c:v>0.4</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0.366666667</c:v>
+                        <c:v>0.45</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0.37142857099999999</c:v>
+                        <c:v>0.6</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>0.58333333300000001</c:v>
+                        <c:v>0.68571428599999995</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>0.44</c:v>
+                        <c:v>0.7</c:v>
                       </c:pt>
                       <c:pt idx="6">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
                         <c:v>0.95</c:v>
                       </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0.2</c:v>
-                      </c:pt>
                       <c:pt idx="8">
-                        <c:v>0.22</c:v>
+                        <c:v>0.64</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>0.24</c:v>
+                        <c:v>0.4</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>0.37142857099999999</c:v>
+                        <c:v>0.45714285700000001</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>0.34285714299999998</c:v>
+                        <c:v>0.6</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>0.55000000000000004</c:v>
+                        <c:v>0.928571429</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>0.58333333300000001</c:v>
+                        <c:v>0.94</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>0.54444444400000003</c:v>
+                        <c:v>0.71111111100000002</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>0.67142857099999997</c:v>
+                        <c:v>0.75</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>0.428571429</c:v>
+                        <c:v>0.85714285700000004</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>0.34444444400000002</c:v>
+                        <c:v>0.97142857100000002</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>0.4</c:v>
+                        <c:v>0.93333333299999999</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>0.46666666699999998</c:v>
+                        <c:v>0.85714285700000004</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>0.43333333299999999</c:v>
+                        <c:v>0.78749999999999998</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>0.58571428599999997</c:v>
+                        <c:v>0.75</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>0.63749999999999996</c:v>
+                        <c:v>0.73750000000000004</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>0.75</c:v>
+                        <c:v>0.8</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>0.71250000000000002</c:v>
+                        <c:v>0.74444444399999998</c:v>
                       </c:pt>
                       <c:pt idx="25">
                         <c:v>0</c:v>
@@ -8900,79 +9317,79 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="26"/>
                       <c:pt idx="0">
-                        <c:v>0.222222222</c:v>
+                        <c:v>0.29166666666666602</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.28571428599999998</c:v>
+                        <c:v>0.29999999999999899</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0.3</c:v>
+                        <c:v>0.33333333333333298</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0.40476190499999998</c:v>
+                        <c:v>0.6</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>0.58333333300000001</c:v>
+                        <c:v>0.29166666666666602</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>0.83333333300000001</c:v>
+                        <c:v>0.33333333333333298</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>0.4</c:v>
+                        <c:v>0.33333333333333298</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>0.33333333300000001</c:v>
+                        <c:v>0.30555555555555503</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>0.39583333300000001</c:v>
+                        <c:v>0.58333333333333304</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>0.33333333300000001</c:v>
+                        <c:v>0.54166666666666596</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>0.33333333300000001</c:v>
+                        <c:v>0.73333333333333295</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>0.33333333300000001</c:v>
+                        <c:v>0.83333333333333304</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>0.33333333300000001</c:v>
+                        <c:v>0.76190476190476097</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>0.43333333299999999</c:v>
+                        <c:v>0.83333333333333304</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>0.44444444399999999</c:v>
+                        <c:v>0.83333333333333304</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>0.43333333299999999</c:v>
+                        <c:v>0.83333333333333304</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>0.45833333300000001</c:v>
+                        <c:v>0.75</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>0.5</c:v>
+                        <c:v>0.76190476190476097</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>0.61904761900000005</c:v>
+                        <c:v>0.66666666666666596</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>0.64583333300000001</c:v>
+                        <c:v>0.41666666666666602</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>0.66666666699999999</c:v>
+                        <c:v>0.54761904761904701</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>0.66666666699999999</c:v>
+                        <c:v>0.66666666666666596</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>0.76190476200000001</c:v>
+                        <c:v>0.54761904761904701</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>0.83333333300000001</c:v>
+                        <c:v>0.54761904761904701</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>0.83333333300000001</c:v>
+                        <c:v>0.61111111111111105</c:v>
                       </c:pt>
                       <c:pt idx="25">
                         <c:v>0</c:v>
@@ -9264,7 +9681,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -9277,7 +9694,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1600"/>
                   <a:t>Generation</a:t>
                 </a:r>
               </a:p>
@@ -9296,7 +9713,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -9334,7 +9751,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -9357,7 +9774,8 @@
         <c:axId val="1517873616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
+          <c:max val="1.1000000000000001"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -9382,7 +9800,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -9395,7 +9813,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1600"/>
                   <a:t>Average Fitness of 10 levels</a:t>
                 </a:r>
               </a:p>
@@ -9414,7 +9832,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -9452,7 +9870,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -9494,7 +9912,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -11258,13 +11676,13 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
+      <xdr:rowOff>93889</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>793750</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>79829</xdr:rowOff>
+      <xdr:rowOff>146504</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11597,13 +12015,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z22" sqref="Z22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11634,16 +12052,19 @@
       <c r="J1" t="s">
         <v>10</v>
       </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.60416666699999999</v>
+        <v>0.7</v>
       </c>
       <c r="C2">
-        <v>0.222222222</v>
+        <v>0.29166666666666602</v>
       </c>
       <c r="D2">
         <v>0.29166666699999999</v>
@@ -11666,16 +12087,19 @@
       <c r="J2">
         <v>0.36111111099999998</v>
       </c>
+      <c r="K2">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.61904761900000005</v>
+        <v>0.68333333299999999</v>
       </c>
       <c r="C3">
-        <v>0.28571428599999998</v>
+        <v>0.29999999999999899</v>
       </c>
       <c r="D3">
         <v>0.3</v>
@@ -11687,7 +12111,7 @@
         <v>0.52</v>
       </c>
       <c r="G3">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="H3">
         <v>0.26250000000000001</v>
@@ -11698,16 +12122,19 @@
       <c r="J3">
         <v>0.44444444399999999</v>
       </c>
+      <c r="K3">
+        <v>0.625</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.85185185200000002</v>
+        <v>0.68333333299999999</v>
       </c>
       <c r="C4">
-        <v>0.3</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="D4">
         <v>0.30952381000000001</v>
@@ -11719,7 +12146,7 @@
         <v>0.51</v>
       </c>
       <c r="G4">
-        <v>0.366666667</v>
+        <v>0.45</v>
       </c>
       <c r="H4">
         <v>0.28000000000000003</v>
@@ -11730,16 +12157,19 @@
       <c r="J4">
         <v>0.41666666699999999</v>
       </c>
+      <c r="K4">
+        <v>0.75</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.83333333300000001</v>
+        <v>0.64583333300000001</v>
       </c>
       <c r="C5">
-        <v>0.40476190499999998</v>
+        <v>0.6</v>
       </c>
       <c r="D5">
         <v>0.3125</v>
@@ -11751,7 +12181,7 @@
         <v>0.44444444399999999</v>
       </c>
       <c r="G5">
-        <v>0.37142857099999999</v>
+        <v>0.6</v>
       </c>
       <c r="H5">
         <v>0.44285714300000001</v>
@@ -11762,16 +12192,19 @@
       <c r="J5">
         <v>0.60648148099999999</v>
       </c>
+      <c r="K5">
+        <v>0.928571429</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.58333333300000001</v>
+        <v>0.87037036999999995</v>
       </c>
       <c r="C6">
-        <v>0.58333333300000001</v>
+        <v>0.29166666666666602</v>
       </c>
       <c r="D6">
         <v>0.41666666699999999</v>
@@ -11783,7 +12216,7 @@
         <v>0.43</v>
       </c>
       <c r="G6">
-        <v>0.58333333300000001</v>
+        <v>0.68571428599999995</v>
       </c>
       <c r="H6">
         <v>0.41666666699999999</v>
@@ -11794,16 +12227,19 @@
       <c r="J6">
         <v>0.54629629599999996</v>
       </c>
+      <c r="K6">
+        <v>0.91666666699999999</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.66666666699999999</v>
+        <v>0.81666666700000001</v>
       </c>
       <c r="C7">
-        <v>0.83333333300000001</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="D7">
         <v>0.3125</v>
@@ -11815,7 +12251,7 @@
         <v>0.47499999999999998</v>
       </c>
       <c r="G7">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="H7">
         <v>0.65</v>
@@ -11826,16 +12262,19 @@
       <c r="J7">
         <v>0.72916666699999999</v>
       </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.71666666700000003</v>
+        <v>0.93333333299999999</v>
       </c>
       <c r="C8">
-        <v>0.4</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="D8">
         <v>0.5</v>
@@ -11847,7 +12286,7 @@
         <v>0.45714285700000001</v>
       </c>
       <c r="G8">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>0.46</v>
@@ -11858,16 +12297,19 @@
       <c r="J8">
         <v>0.43055555600000001</v>
       </c>
+      <c r="K8">
+        <v>0.928571429</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.81481481499999997</v>
+        <v>0.91666666699999999</v>
       </c>
       <c r="C9">
-        <v>0.33333333300000001</v>
+        <v>0.30555555555555503</v>
       </c>
       <c r="D9">
         <v>0.54761904800000005</v>
@@ -11879,7 +12321,7 @@
         <v>0.514285714</v>
       </c>
       <c r="G9">
-        <v>0.2</v>
+        <v>0.95</v>
       </c>
       <c r="H9">
         <v>0.38</v>
@@ -11890,8 +12332,11 @@
       <c r="J9">
         <v>0.36507936499999999</v>
       </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -11899,7 +12344,7 @@
         <v>0.91666666699999999</v>
       </c>
       <c r="C10">
-        <v>0.39583333300000001</v>
+        <v>0.58333333333333304</v>
       </c>
       <c r="D10">
         <v>0.58333333300000001</v>
@@ -11911,7 +12356,7 @@
         <v>0.52857142899999998</v>
       </c>
       <c r="G10">
-        <v>0.22</v>
+        <v>0.64</v>
       </c>
       <c r="H10">
         <v>0.56666666700000001</v>
@@ -11922,16 +12367,19 @@
       <c r="J10">
         <v>0.46666666699999998</v>
       </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.65</v>
+        <v>0.77777777800000003</v>
       </c>
       <c r="C11">
-        <v>0.33333333300000001</v>
+        <v>0.54166666666666596</v>
       </c>
       <c r="D11">
         <v>0.6875</v>
@@ -11943,7 +12391,7 @@
         <v>0.53333333299999997</v>
       </c>
       <c r="G11">
-        <v>0.24</v>
+        <v>0.4</v>
       </c>
       <c r="H11">
         <v>0.6</v>
@@ -11954,16 +12402,19 @@
       <c r="J11">
         <v>0.43055555600000001</v>
       </c>
+      <c r="K11">
+        <v>0.95</v>
+      </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.63333333300000005</v>
+        <v>0.75925925900000002</v>
       </c>
       <c r="C12">
-        <v>0.33333333300000001</v>
+        <v>0.73333333333333295</v>
       </c>
       <c r="D12">
         <v>0.64285714299999996</v>
@@ -11975,7 +12426,7 @@
         <v>0.45555555599999997</v>
       </c>
       <c r="G12">
-        <v>0.37142857099999999</v>
+        <v>0.45714285700000001</v>
       </c>
       <c r="H12">
         <v>0.55000000000000004</v>
@@ -11986,16 +12437,19 @@
       <c r="J12">
         <v>0.47777777799999999</v>
       </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.75</v>
+        <v>0.79629629599999996</v>
       </c>
       <c r="C13">
-        <v>0.33333333300000001</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="D13">
         <v>0.55555555599999995</v>
@@ -12007,7 +12461,7 @@
         <v>0.62222222199999999</v>
       </c>
       <c r="G13">
-        <v>0.34285714299999998</v>
+        <v>0.6</v>
       </c>
       <c r="H13">
         <v>0.6</v>
@@ -12018,16 +12472,19 @@
       <c r="J13">
         <v>0.44444444399999999</v>
       </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.83333333300000001</v>
+        <v>0.91666666699999999</v>
       </c>
       <c r="C14">
-        <v>0.33333333300000001</v>
+        <v>0.76190476190476097</v>
       </c>
       <c r="D14">
         <v>0.5</v>
@@ -12039,7 +12496,7 @@
         <v>0.67</v>
       </c>
       <c r="G14">
-        <v>0.55000000000000004</v>
+        <v>0.928571429</v>
       </c>
       <c r="H14">
         <v>0.54444444400000003</v>
@@ -12050,16 +12507,19 @@
       <c r="J14">
         <v>0.48055555599999999</v>
       </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.91666666699999999</v>
+        <v>0.88333333300000005</v>
       </c>
       <c r="C15">
-        <v>0.43333333299999999</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="D15">
         <v>0.77777777800000003</v>
@@ -12071,7 +12531,7 @@
         <v>0.68</v>
       </c>
       <c r="G15">
-        <v>0.58333333300000001</v>
+        <v>0.94</v>
       </c>
       <c r="H15">
         <v>0.61</v>
@@ -12082,16 +12542,19 @@
       <c r="J15">
         <v>0.54320987700000001</v>
       </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.907407407</v>
+        <v>0.94444444400000005</v>
       </c>
       <c r="C16">
-        <v>0.44444444399999999</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="D16">
         <v>0.60416666699999999</v>
@@ -12103,7 +12566,7 @@
         <v>0.6</v>
       </c>
       <c r="G16">
-        <v>0.54444444400000003</v>
+        <v>0.71111111100000002</v>
       </c>
       <c r="H16">
         <v>0.61666666699999995</v>
@@ -12114,8 +12577,11 @@
       <c r="J16">
         <v>0.53055555600000004</v>
       </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -12123,7 +12589,7 @@
         <v>0.81666666700000001</v>
       </c>
       <c r="C17">
-        <v>0.43333333299999999</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="D17">
         <v>0.57407407399999999</v>
@@ -12135,7 +12601,7 @@
         <v>0.64</v>
       </c>
       <c r="G17">
-        <v>0.67142857099999997</v>
+        <v>0.75</v>
       </c>
       <c r="H17">
         <v>0.55000000000000004</v>
@@ -12146,16 +12612,19 @@
       <c r="J17">
         <v>0.56944444400000005</v>
       </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.70370370400000004</v>
+        <v>0.93333333299999999</v>
       </c>
       <c r="C18">
-        <v>0.45833333300000001</v>
+        <v>0.75</v>
       </c>
       <c r="D18">
         <v>0.7</v>
@@ -12167,7 +12636,7 @@
         <v>0.64</v>
       </c>
       <c r="G18">
-        <v>0.428571429</v>
+        <v>0.85714285700000004</v>
       </c>
       <c r="H18">
         <v>0.63333333300000005</v>
@@ -12178,16 +12647,19 @@
       <c r="J18">
         <v>0.563888889</v>
       </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.88333333300000005</v>
+        <v>0.93333333299999999</v>
       </c>
       <c r="C19">
-        <v>0.5</v>
+        <v>0.76190476190476097</v>
       </c>
       <c r="D19">
         <v>0.83333333300000001</v>
@@ -12199,7 +12671,7 @@
         <v>0.62</v>
       </c>
       <c r="G19">
-        <v>0.34444444400000002</v>
+        <v>0.97142857100000002</v>
       </c>
       <c r="H19">
         <v>0.61428571399999998</v>
@@ -12210,16 +12682,19 @@
       <c r="J19">
         <v>0.55555555599999995</v>
       </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.88333333300000005</v>
+        <v>0.9</v>
       </c>
       <c r="C20">
-        <v>0.61904761900000005</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="D20">
         <v>0.85416666699999999</v>
@@ -12231,7 +12706,7 @@
         <v>0.64</v>
       </c>
       <c r="G20">
-        <v>0.4</v>
+        <v>0.93333333299999999</v>
       </c>
       <c r="H20">
         <v>0.6</v>
@@ -12242,16 +12717,19 @@
       <c r="J20">
         <v>0.40833333300000002</v>
       </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.91666666699999999</v>
+        <v>0.93333333299999999</v>
       </c>
       <c r="C21">
-        <v>0.64583333300000001</v>
+        <v>0.41666666666666602</v>
       </c>
       <c r="D21">
         <v>0.88888888899999996</v>
@@ -12263,7 +12741,7 @@
         <v>0.64</v>
       </c>
       <c r="G21">
-        <v>0.46666666699999998</v>
+        <v>0.85714285700000004</v>
       </c>
       <c r="H21">
         <v>0.5625</v>
@@ -12274,16 +12752,19 @@
       <c r="J21">
         <v>0.34567901200000001</v>
       </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.96296296299999995</v>
+        <v>0.89583333300000001</v>
       </c>
       <c r="C22">
-        <v>0.66666666699999999</v>
+        <v>0.54761904761904701</v>
       </c>
       <c r="D22">
         <v>0.88888888899999996</v>
@@ -12295,7 +12776,7 @@
         <v>0.77</v>
       </c>
       <c r="G22">
-        <v>0.43333333299999999</v>
+        <v>0.78749999999999998</v>
       </c>
       <c r="H22">
         <v>0.64444444400000001</v>
@@ -12306,16 +12787,19 @@
       <c r="J22">
         <v>0.37037037</v>
       </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.88333333300000005</v>
+        <v>0.93333333299999999</v>
       </c>
       <c r="C23">
-        <v>0.66666666699999999</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="D23">
         <v>0.88888888899999996</v>
@@ -12327,7 +12811,7 @@
         <v>0.77777777800000003</v>
       </c>
       <c r="G23">
-        <v>0.58571428599999997</v>
+        <v>0.75</v>
       </c>
       <c r="H23">
         <v>0.67500000000000004</v>
@@ -12338,16 +12822,19 @@
       <c r="J23">
         <v>0.301587302</v>
       </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.73333333300000003</v>
+        <v>0.91666666699999999</v>
       </c>
       <c r="C24">
-        <v>0.76190476200000001</v>
+        <v>0.54761904761904701</v>
       </c>
       <c r="D24">
         <v>0.72222222199999997</v>
@@ -12359,7 +12846,7 @@
         <v>0.7</v>
       </c>
       <c r="G24">
-        <v>0.63749999999999996</v>
+        <v>0.73750000000000004</v>
       </c>
       <c r="H24">
         <v>0.6</v>
@@ -12370,16 +12857,19 @@
       <c r="J24">
         <v>0.34567901200000001</v>
       </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.71666666700000003</v>
+        <v>0.81666666700000001</v>
       </c>
       <c r="C25">
-        <v>0.83333333300000001</v>
+        <v>0.54761904761904701</v>
       </c>
       <c r="D25">
         <v>0.75</v>
@@ -12391,7 +12881,7 @@
         <v>0.65555555600000004</v>
       </c>
       <c r="G25">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="H25">
         <v>0.58750000000000002</v>
@@ -12402,16 +12892,19 @@
       <c r="J25">
         <v>0.56666666700000001</v>
       </c>
+      <c r="K25">
+        <v>0.95</v>
+      </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.61666666699999995</v>
+        <v>0.8</v>
       </c>
       <c r="C26">
-        <v>0.83333333300000001</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="D26">
         <v>0.61666666699999995</v>
@@ -12423,7 +12916,7 @@
         <v>0.83333333300000001</v>
       </c>
       <c r="G26">
-        <v>0.71250000000000002</v>
+        <v>0.74444444399999998</v>
       </c>
       <c r="H26">
         <v>0.57499999999999996</v>
@@ -12434,8 +12927,11 @@
       <c r="J26">
         <v>0.55555555599999995</v>
       </c>
+      <c r="K26">
+        <v>0.95</v>
+      </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -12466,8 +12962,11 @@
       <c r="J27" t="s">
         <v>20</v>
       </c>
+      <c r="K27" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -12498,8 +12997,11 @@
       <c r="J28">
         <v>0.36780000000000002</v>
       </c>
+      <c r="K28">
+        <v>0.61819999999999997</v>
+      </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -12530,8 +13032,11 @@
       <c r="J29">
         <v>0.36780000000000002</v>
       </c>
+      <c r="K29">
+        <v>0.61819999999999997</v>
+      </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -12562,8 +13067,11 @@
       <c r="J30">
         <v>0.36780000000000002</v>
       </c>
+      <c r="K30">
+        <v>0.61819999999999997</v>
+      </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -12594,8 +13102,11 @@
       <c r="J31">
         <v>0.36780000000000002</v>
       </c>
+      <c r="K31">
+        <v>0.61819999999999997</v>
+      </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4</v>
       </c>
@@ -12625,6 +13136,9 @@
       </c>
       <c r="J32">
         <v>0.36780000000000002</v>
+      </c>
+      <c r="K32">
+        <v>0.61819999999999997</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -12658,6 +13172,9 @@
       <c r="J33">
         <v>0.36780000000000002</v>
       </c>
+      <c r="K33">
+        <v>0.61819999999999997</v>
+      </c>
       <c r="O33" t="s">
         <v>1</v>
       </c>
@@ -12693,6 +13210,9 @@
       <c r="J34">
         <v>0.36780000000000002</v>
       </c>
+      <c r="K34">
+        <v>0.61819999999999997</v>
+      </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -12725,6 +13245,9 @@
       <c r="J35">
         <v>0.36780000000000002</v>
       </c>
+      <c r="K35">
+        <v>0.61819999999999997</v>
+      </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36">
@@ -12757,6 +13280,9 @@
       <c r="J36">
         <v>0.36780000000000002</v>
       </c>
+      <c r="K36">
+        <v>0.61819999999999997</v>
+      </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37">
@@ -12789,6 +13315,9 @@
       <c r="J37">
         <v>0.36780000000000002</v>
       </c>
+      <c r="K37">
+        <v>0.61819999999999997</v>
+      </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -12821,6 +13350,9 @@
       <c r="J38">
         <v>0.36780000000000002</v>
       </c>
+      <c r="K38">
+        <v>0.61819999999999997</v>
+      </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39">
@@ -12853,6 +13385,9 @@
       <c r="J39">
         <v>0.36780000000000002</v>
       </c>
+      <c r="K39">
+        <v>0.61819999999999997</v>
+      </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40">
@@ -12885,6 +13420,9 @@
       <c r="J40">
         <v>0.36780000000000002</v>
       </c>
+      <c r="K40">
+        <v>0.61819999999999997</v>
+      </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41">
@@ -12917,6 +13455,9 @@
       <c r="J41">
         <v>0.36780000000000002</v>
       </c>
+      <c r="K41">
+        <v>0.61819999999999997</v>
+      </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42">
@@ -12949,6 +13490,9 @@
       <c r="J42">
         <v>0.36780000000000002</v>
       </c>
+      <c r="K42">
+        <v>0.61819999999999997</v>
+      </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43">
@@ -12981,6 +13525,9 @@
       <c r="J43">
         <v>0.36780000000000002</v>
       </c>
+      <c r="K43">
+        <v>0.61819999999999997</v>
+      </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44">
@@ -13013,6 +13560,9 @@
       <c r="J44">
         <v>0.36780000000000002</v>
       </c>
+      <c r="K44">
+        <v>0.61819999999999997</v>
+      </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45">
@@ -13045,6 +13595,9 @@
       <c r="J45">
         <v>0.36780000000000002</v>
       </c>
+      <c r="K45">
+        <v>0.61819999999999997</v>
+      </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46">
@@ -13077,6 +13630,9 @@
       <c r="J46">
         <v>0.36780000000000002</v>
       </c>
+      <c r="K46">
+        <v>0.61819999999999997</v>
+      </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47">
@@ -13109,6 +13665,9 @@
       <c r="J47">
         <v>0.36780000000000002</v>
       </c>
+      <c r="K47">
+        <v>0.61819999999999997</v>
+      </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48">
@@ -13141,8 +13700,11 @@
       <c r="J48">
         <v>0.36780000000000002</v>
       </c>
+      <c r="K48">
+        <v>0.61819999999999997</v>
+      </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>21</v>
       </c>
@@ -13173,8 +13735,11 @@
       <c r="J49">
         <v>0.36780000000000002</v>
       </c>
+      <c r="K49">
+        <v>0.61819999999999997</v>
+      </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>22</v>
       </c>
@@ -13205,8 +13770,11 @@
       <c r="J50">
         <v>0.36780000000000002</v>
       </c>
+      <c r="K50">
+        <v>0.61819999999999997</v>
+      </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>23</v>
       </c>
@@ -13237,8 +13805,11 @@
       <c r="J51">
         <v>0.36780000000000002</v>
       </c>
+      <c r="K51">
+        <v>0.61819999999999997</v>
+      </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>24</v>
       </c>
@@ -13268,6 +13839,9 @@
       </c>
       <c r="J52">
         <v>0.36780000000000002</v>
+      </c>
+      <c r="K52">
+        <v>0.61819999999999997</v>
       </c>
     </row>
   </sheetData>
